--- a/88.xlsx
+++ b/88.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liana\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\py\twstock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0200601-FA3E-4C6F-823F-6AF692ACBA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AF0D4D-E786-483F-A06A-89344E727CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{47DDDF54-944A-4756-B61E-BB185F92436C}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{47DDDF54-944A-4756-B61E-BB185F92436C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -10632,17 +10632,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9760E4-6252-4CFB-95E8-1808FF752DF3}">
   <dimension ref="A1:AN38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AN38" sqref="AN38"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10764,7 +10764,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>[1]!'0050.TW-ID'</f>
         <v>0050</v>
@@ -10926,7 +10926,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>[1]!'0052.TW-ID'</f>
         <v>0052</v>
@@ -11088,7 +11088,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>[1]!'0055.TW-ID'</f>
         <v>0055</v>
@@ -11250,7 +11250,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>[1]!'0056.TW-ID'</f>
         <v>0056</v>
@@ -11412,7 +11412,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>[1]!'006204.TW-ID'</f>
         <v>006204</v>
@@ -11574,7 +11574,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>[1]!'006208.TW-ID'</f>
         <v>006208</v>
@@ -11736,7 +11736,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>[1]!'00637L.TW-ID'</f>
         <v>00637L</v>
@@ -11898,7 +11898,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>[1]!'00646.TW-ID'</f>
         <v>00646</v>
@@ -12060,7 +12060,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>[1]!'00679B.TW-ID'</f>
         <v>00679B</v>
@@ -12222,7 +12222,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>[1]!'00690.TW-ID'</f>
         <v>00690</v>
@@ -12384,7 +12384,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>[1]!'00692.TW-ID'</f>
         <v>00692</v>
@@ -12546,7 +12546,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>[1]!'00701.TW-ID'</f>
         <v>00701</v>
@@ -12708,7 +12708,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>[1]!'00708L.TW-ID'</f>
         <v>00708L</v>
@@ -12870,7 +12870,7 @@
         <v>--</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>[1]!'00712.TW-ID'</f>
         <v>00712</v>
@@ -13032,7 +13032,7 @@
         <v>3.47</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>[1]!'00713.TW-ID'</f>
         <v>00713</v>
@@ -13194,7 +13194,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>[1]!'00728.TW-ID'</f>
         <v>00728</v>
@@ -13356,7 +13356,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>[1]!'00730.TW-ID'</f>
         <v>00730</v>
@@ -13518,7 +13518,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f>[1]!'00731.TW-ID'</f>
         <v>00731</v>
@@ -13680,7 +13680,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f>[1]!'00733.TW-ID'</f>
         <v>00733</v>
@@ -13842,7 +13842,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>[1]!'00751B.TW-ID'</f>
         <v>00751B</v>
@@ -14004,7 +14004,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f>[1]!'00752.TW-ID'</f>
         <v>00752</v>
@@ -14166,7 +14166,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f>[1]!'00757.TW-ID'</f>
         <v>00757</v>
@@ -14328,7 +14328,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f>[1]!'00770.TW-ID'</f>
         <v>00770</v>
@@ -14490,7 +14490,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f>[1]!'00772B.TW-ID'</f>
         <v>00772B</v>
@@ -14652,7 +14652,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f>[1]!'00773B.TW-ID'</f>
         <v>00773B</v>
@@ -14814,7 +14814,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>[1]!'00830.TW-ID'</f>
         <v>00830</v>
@@ -14976,7 +14976,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f>[1]!'00850.TW-ID'</f>
         <v>00850</v>
@@ -15138,7 +15138,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f>[1]!'00878.TW-ID'</f>
         <v>00878</v>
@@ -15300,7 +15300,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f>[1]!'00881.TW-ID'</f>
         <v>00881</v>
@@ -15462,7 +15462,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f>[1]!'00882.TW-ID'</f>
         <v>00882</v>
@@ -15624,7 +15624,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f>[1]!'00885.TW-ID'</f>
         <v>00885</v>
@@ -15786,7 +15786,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f>[1]!'00888.TW-ID'</f>
         <v>00888</v>
@@ -15948,7 +15948,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f>[1]!'00892.TW-ID'</f>
         <v>00892</v>
@@ -16110,7 +16110,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f>[1]!'00894.TW-ID'</f>
         <v>00894</v>
@@ -16272,7 +16272,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f>[1]!'00900.TW-ID'</f>
         <v>00900</v>
@@ -16434,7 +16434,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f>[1]!'00907.TW-ID'</f>
         <v>00907</v>
@@ -16596,7 +16596,7 @@
         <v>--</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f>[1]!'00771.TW-ID'</f>
         <v>00771</v>

--- a/88.xlsx
+++ b/88.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\py\twstock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AF0D4D-E786-483F-A06A-89344E727CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A56442-6F82-439D-8448-8F5418F2748F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{47DDDF54-944A-4756-B61E-BB185F92436C}"/>
+    <workbookView xWindow="0" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{47DDDF54-944A-4756-B61E-BB185F92436C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>代碼</t>
   </si>
@@ -157,6 +155,9 @@
   <si>
     <t>總管理費%</t>
   </si>
+  <si>
+    <t>元大台灣50</t>
+  </si>
 </sst>
 </file>
 
@@ -226,27 +227,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <ddeLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ddeService="XQCTYAP" ddeTopic="Quote">
     <ddeItems>
-      <ddeItem name="0050.TW-Ask" advise="1">
-        <values>
-          <value>
-            <val>128.1</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="0050.TW-BestAskSize" advise="1">
-        <values>
-          <value>
-            <val>5</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="0050.TW-BestBidSize" advise="1">
-        <values>
-          <value>
-            <val>22</val>
-          </value>
-        </values>
-      </ddeItem>
       <ddeItem name="0050.TW-Beta" advise="1">
         <values>
           <value t="str">
@@ -254,13 +234,6 @@
           </value>
         </values>
       </ddeItem>
-      <ddeItem name="0050.TW-Bid" advise="1">
-        <values>
-          <value>
-            <val>128.05000000000001</val>
-          </value>
-        </values>
-      </ddeItem>
       <ddeItem name="0050.TW-Capital" advise="1">
         <values>
           <value t="str">
@@ -310,13 +283,6 @@
           </value>
         </values>
       </ddeItem>
-      <ddeItem name="0050.TW-High" advise="1">
-        <values>
-          <value>
-            <val>128.25</val>
-          </value>
-        </values>
-      </ddeItem>
       <ddeItem name="0050.TW-ID" advise="1">
         <values>
           <value t="str">
@@ -338,13 +304,6 @@
           </value>
         </values>
       </ddeItem>
-      <ddeItem name="0050.TW-Low" advise="1">
-        <values>
-          <value>
-            <val>127</val>
-          </value>
-        </values>
-      </ddeItem>
       <ddeItem name="0050.TW-ManagementPercent" advise="1">
         <values>
           <value>
@@ -359,13 +318,6 @@
           </value>
         </values>
       </ddeItem>
-      <ddeItem name="0050.TW-Name" advise="1">
-        <values>
-          <value t="str">
-            <val>元大台灣50</val>
-          </value>
-        </values>
-      </ddeItem>
       <ddeItem name="0050.TW-NetProfitMargin" advise="1">
         <values>
           <value t="str">
@@ -373,13 +325,6 @@
           </value>
         </values>
       </ddeItem>
-      <ddeItem name="0050.TW-Open" advise="1">
-        <values>
-          <value>
-            <val>127</val>
-          </value>
-        </values>
-      </ddeItem>
       <ddeItem name="0050.TW-OperatingProfitRatio" advise="1">
         <values>
           <value t="str">
@@ -401,27 +346,6 @@
           </value>
         </values>
       </ddeItem>
-      <ddeItem name="0050.TW-Price" advise="1">
-        <values>
-          <value>
-            <val>128.1</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="0050.TW-PriceChange" advise="1">
-        <values>
-          <value>
-            <val>1.4</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="0050.TW-PriceChangeRatio" advise="1">
-        <values>
-          <value>
-            <val>1.1000000000000001</val>
-          </value>
-        </values>
-      </ddeItem>
       <ddeItem name="0050.TW-Profit" advise="1">
         <values>
           <value t="str">
@@ -482,20 +406,6 @@
         <values>
           <value t="str">
             <val>--</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="0050.TW-TotalVolume" advise="1">
-        <values>
-          <value>
-            <val>12051</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="0050.TW-Volume" advise="1">
-        <values>
-          <value>
-            <val>87</val>
           </value>
         </values>
       </ddeItem>
@@ -10632,13 +10542,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9760E4-6252-4CFB-95E8-1808FF752DF3}">
   <dimension ref="A1:AN38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10769,57 +10679,44 @@
         <f>[1]!'0050.TW-ID'</f>
         <v>0050</v>
       </c>
-      <c r="B2" t="str">
-        <f>[1]!'0050.TW-Name'</f>
-        <v>元大台灣50</v>
+      <c r="B2" t="s">
+        <v>39</v>
       </c>
       <c r="C2">
-        <f>[1]!'0050.TW-Bid'</f>
-        <v>128.05000000000001</v>
+        <v>131.30000000000001</v>
       </c>
       <c r="D2">
-        <f>[1]!'0050.TW-Ask'</f>
-        <v>128.1</v>
+        <v>131.75</v>
       </c>
       <c r="E2">
-        <f>[1]!'0050.TW-Price'</f>
-        <v>128.1</v>
+        <v>131.55000000000001</v>
       </c>
       <c r="F2">
-        <f>[1]!'0050.TW-PriceChange'</f>
-        <v>1.4</v>
+        <v>-0.35</v>
       </c>
       <c r="G2">
-        <f>[1]!'0050.TW-PriceChangeRatio'</f>
-        <v>1.1000000000000001</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="H2">
-        <f>[1]!'0050.TW-Volume'</f>
-        <v>87</v>
+        <v>206</v>
       </c>
       <c r="I2">
-        <f>[1]!'0050.TW-BestBidSize'</f>
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="J2">
-        <f>[1]!'0050.TW-BestAskSize'</f>
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="K2">
-        <f>[1]!'0050.TW-TotalVolume'</f>
-        <v>12051</v>
+        <v>7172</v>
       </c>
       <c r="L2">
-        <f>[1]!'0050.TW-High'</f>
-        <v>128.25</v>
+        <v>131.80000000000001</v>
       </c>
       <c r="M2">
-        <f>[1]!'0050.TW-Low'</f>
-        <v>127</v>
+        <v>131.1</v>
       </c>
       <c r="N2">
-        <f>[1]!'0050.TW-Open'</f>
-        <v>127</v>
+        <v>131.80000000000001</v>
       </c>
       <c r="O2" t="str">
         <f>[1]!'0050.TW-Beta'</f>

--- a/88.xlsx
+++ b/88.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\py\twstock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A56442-6F82-439D-8448-8F5418F2748F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616AAF8B-267B-45EC-BCE7-C58E53BB7411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{47DDDF54-944A-4756-B61E-BB185F92436C}"/>
   </bookViews>
@@ -157,6 +157,7 @@
   </si>
   <si>
     <t>元大台灣50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10543,7 +10544,7 @@
   <dimension ref="A1:AN38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>

--- a/88.xlsx
+++ b/88.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\py\twstock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616AAF8B-267B-45EC-BCE7-C58E53BB7411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29725F10-8A4A-40A3-BB96-F15ED22E1704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{47DDDF54-944A-4756-B61E-BB185F92436C}"/>
+    <workbookView xWindow="300" yWindow="2040" windowWidth="17280" windowHeight="8880" xr2:uid="{47DDDF54-944A-4756-B61E-BB185F92436C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>代碼</t>
   </si>
@@ -157,6 +157,10 @@
   </si>
   <si>
     <t>元大台灣50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10692,11 +10696,11 @@
       <c r="E2">
         <v>131.55000000000001</v>
       </c>
-      <c r="F2">
-        <v>-0.35</v>
-      </c>
-      <c r="G2">
-        <v>0.53400000000000003</v>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
       </c>
       <c r="H2">
         <v>206</v>

--- a/88.xlsx
+++ b/88.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\py\twstock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29725F10-8A4A-40A3-BB96-F15ED22E1704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80C4339-5F85-466C-B683-87DD5FE21745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="2040" windowWidth="17280" windowHeight="8880" xr2:uid="{47DDDF54-944A-4756-B61E-BB185F92436C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{47DDDF54-944A-4756-B61E-BB185F92436C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -7236,279 +7236,6 @@
         <values>
           <value>
             <val>103</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="00830.TW-Ask" advise="1">
-        <values>
-          <value>
-            <val>31.12</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="00830.TW-BestAskSize" advise="1">
-        <values>
-          <value>
-            <val>13</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="00830.TW-BestBidSize" advise="1">
-        <values>
-          <value>
-            <val>44</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="00830.TW-Beta" advise="1">
-        <values>
-          <value t="str">
-            <val>--</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="00830.TW-Bid" advise="1">
-        <values>
-          <value>
-            <val>31.11</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="00830.TW-Capital" advise="1">
-        <values>
-          <value t="str">
-            <val>--</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="00830.TW-CashDividend" advise="1">
-        <values>
-          <value t="str">
-            <val>0.12</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="00830.TW-CashDividendYieldRate" advise="1">
-        <values>
-          <value>
-            <val>0.39</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="00830.TW-ChipsField25" advise="1">
-        <values>
-          <value t="str">
-            <val>2023/01/30</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="00830.TW-ChipsField26" advise="1">
-        <values>
-          <value t="str">
-            <val>2023/03/02</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="00830.TW-ChipsField27" advise="1">
-        <values>
-          <value t="str">
-            <val>--</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="00830.TW-CurrentRatio" advise="1">
-        <values>
-          <value t="str">
-            <val>--</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="00830.TW-High" advise="1">
-        <values>
-          <value>
-            <val>31.15</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="00830.TW-ID" advise="1">
-        <values>
-          <value t="str">
-            <val>00830</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="00830.TW-InventoryTurnoverRatio" advise="1">
-        <values>
-          <value t="str">
-            <val>--</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="00830.TW-LiabilityRatio" advise="1">
-        <values>
-          <value t="str">
-            <val>--</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="00830.TW-Low" advise="1">
-        <values>
-          <value>
-            <val>31.08</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="00830.TW-ManagementPercent" advise="1">
-        <values>
-          <value>
-            <val>0.97</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="00830.TW-MarketValue" advise="1">
-        <values>
-          <value t="str">
-            <val>--</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="00830.TW-Name" advise="1">
-        <values>
-          <value t="str">
-            <val>國泰費城半導體</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="00830.TW-NetProfitMargin" advise="1">
-        <values>
-          <value t="str">
-            <val>--</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="00830.TW-Open" advise="1">
-        <values>
-          <value>
-            <val>31.14</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="00830.TW-OperatingProfitRatio" advise="1">
-        <values>
-          <value t="str">
-            <val>--</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="00830.TW-PBRatio" advise="1">
-        <values>
-          <value t="str">
-            <val>--</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="00830.TW-PERatio" advise="1">
-        <values>
-          <value t="str">
-            <val>--</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="00830.TW-Price" advise="1">
-        <values>
-          <value>
-            <val>31.12</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="00830.TW-PriceChange" advise="1">
-        <values>
-          <value>
-            <val>0.39</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="00830.TW-PriceChangeRatio" advise="1">
-        <values>
-          <value>
-            <val>1.27</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="00830.TW-Profit" advise="1">
-        <values>
-          <value t="str">
-            <val>--</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="00830.TW-ProfitMargin" advise="1">
-        <values>
-          <value t="str">
-            <val>--</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="00830.TW-QuickRatio" advise="1">
-        <values>
-          <value t="str">
-            <val>--</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="00830.TW-ReceivablesTurnoverRatio" advise="1">
-        <values>
-          <value t="str">
-            <val>--</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="00830.TW-ReturnOnAssets" advise="1">
-        <values>
-          <value t="str">
-            <val>--</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="00830.TW-ROE" advise="1">
-        <values>
-          <value t="str">
-            <val>--</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="00830.TW-StockDividend" advise="1">
-        <values>
-          <value t="str">
-            <val>--</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="00830.TW-StockNetValue" advise="1">
-        <values>
-          <value t="str">
-            <val>--</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="00830.TW-TimesInterestEarne" advise="1">
-        <values>
-          <value t="str">
-            <val>--</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="00830.TW-TotalVolume" advise="1">
-        <values>
-          <value>
-            <val>2425</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="00830.TW-Volume" advise="1">
-        <values>
-          <value>
-            <val>57</val>
           </value>
         </values>
       </ddeItem>
@@ -10545,10 +10272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9760E4-6252-4CFB-95E8-1808FF752DF3}">
-  <dimension ref="A1:AN38"/>
+  <dimension ref="A1:AN37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -14718,1944 +14445,1782 @@
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
-        <f>[1]!'00830.TW-ID'</f>
-        <v>00830</v>
+        <f>[1]!'00850.TW-ID'</f>
+        <v>00850</v>
       </c>
       <c r="B27" t="str">
-        <f>[1]!'00830.TW-Name'</f>
-        <v>國泰費城半導體</v>
+        <f>[1]!'00850.TW-Name'</f>
+        <v>元大臺灣ESG永續</v>
       </c>
       <c r="C27">
-        <f>[1]!'00830.TW-Bid'</f>
-        <v>31.11</v>
+        <f>[1]!'00850.TW-Bid'</f>
+        <v>33.409999999999997</v>
       </c>
       <c r="D27">
-        <f>[1]!'00830.TW-Ask'</f>
-        <v>31.12</v>
+        <f>[1]!'00850.TW-Ask'</f>
+        <v>33.42</v>
       </c>
       <c r="E27">
-        <f>[1]!'00830.TW-Price'</f>
-        <v>31.12</v>
+        <f>[1]!'00850.TW-Price'</f>
+        <v>33.409999999999997</v>
       </c>
       <c r="F27">
-        <f>[1]!'00830.TW-PriceChange'</f>
-        <v>0.39</v>
+        <f>[1]!'00850.TW-PriceChange'</f>
+        <v>0.32</v>
       </c>
       <c r="G27">
-        <f>[1]!'00830.TW-PriceChangeRatio'</f>
-        <v>1.27</v>
+        <f>[1]!'00850.TW-PriceChangeRatio'</f>
+        <v>0.97</v>
       </c>
       <c r="H27">
-        <f>[1]!'00830.TW-Volume'</f>
-        <v>57</v>
+        <f>[1]!'00850.TW-Volume'</f>
+        <v>67</v>
       </c>
       <c r="I27">
-        <f>[1]!'00830.TW-BestBidSize'</f>
-        <v>44</v>
+        <f>[1]!'00850.TW-BestBidSize'</f>
+        <v>34</v>
       </c>
       <c r="J27">
-        <f>[1]!'00830.TW-BestAskSize'</f>
-        <v>13</v>
+        <f>[1]!'00850.TW-BestAskSize'</f>
+        <v>3</v>
       </c>
       <c r="K27">
-        <f>[1]!'00830.TW-TotalVolume'</f>
-        <v>2425</v>
+        <f>[1]!'00850.TW-TotalVolume'</f>
+        <v>1647</v>
       </c>
       <c r="L27">
-        <f>[1]!'00830.TW-High'</f>
-        <v>31.15</v>
+        <f>[1]!'00850.TW-High'</f>
+        <v>33.409999999999997</v>
       </c>
       <c r="M27">
-        <f>[1]!'00830.TW-Low'</f>
-        <v>31.08</v>
+        <f>[1]!'00850.TW-Low'</f>
+        <v>33.14</v>
       </c>
       <c r="N27">
-        <f>[1]!'00830.TW-Open'</f>
-        <v>31.14</v>
+        <f>[1]!'00850.TW-Open'</f>
+        <v>33.14</v>
       </c>
       <c r="O27" t="str">
-        <f>[1]!'00830.TW-Beta'</f>
+        <f>[1]!'00850.TW-Beta'</f>
         <v>--</v>
       </c>
       <c r="P27" t="str">
-        <f>[1]!'00830.TW-PERatio'</f>
+        <f>[1]!'00850.TW-PERatio'</f>
         <v>--</v>
       </c>
       <c r="Q27" t="str">
-        <f>[1]!'00830.TW-PBRatio'</f>
+        <f>[1]!'00850.TW-PBRatio'</f>
         <v>--</v>
       </c>
       <c r="R27" t="str">
-        <f>[1]!'00830.TW-ROE'</f>
+        <f>[1]!'00850.TW-ROE'</f>
         <v>--</v>
       </c>
       <c r="S27" t="str">
-        <f>[1]!'00830.TW-ReturnOnAssets'</f>
+        <f>[1]!'00850.TW-ReturnOnAssets'</f>
         <v>--</v>
       </c>
       <c r="T27" t="str">
-        <f>[1]!'00830.TW-ProfitMargin'</f>
+        <f>[1]!'00850.TW-ProfitMargin'</f>
         <v>--</v>
       </c>
       <c r="U27" t="str">
-        <f>[1]!'00830.TW-OperatingProfitRatio'</f>
+        <f>[1]!'00850.TW-OperatingProfitRatio'</f>
         <v>--</v>
       </c>
       <c r="V27" t="str">
-        <f>[1]!'00830.TW-NetProfitMargin'</f>
+        <f>[1]!'00850.TW-NetProfitMargin'</f>
         <v>--</v>
       </c>
       <c r="W27" t="str">
-        <f>[1]!'00830.TW-StockNetValue'</f>
+        <f>[1]!'00850.TW-StockNetValue'</f>
         <v>--</v>
       </c>
       <c r="X27" t="str">
-        <f>[1]!'00830.TW-Profit'</f>
+        <f>[1]!'00850.TW-Profit'</f>
         <v>--</v>
       </c>
       <c r="Y27" t="str">
-        <f>[1]!'00830.TW-CurrentRatio'</f>
+        <f>[1]!'00850.TW-CurrentRatio'</f>
         <v>--</v>
       </c>
       <c r="Z27" t="str">
-        <f>[1]!'00830.TW-QuickRatio'</f>
+        <f>[1]!'00850.TW-QuickRatio'</f>
         <v>--</v>
       </c>
       <c r="AA27" t="str">
-        <f>[1]!'00830.TW-LiabilityRatio'</f>
+        <f>[1]!'00850.TW-LiabilityRatio'</f>
         <v>--</v>
       </c>
       <c r="AB27" t="str">
-        <f>[1]!'00830.TW-TimesInterestEarne'</f>
+        <f>[1]!'00850.TW-TimesInterestEarne'</f>
         <v>--</v>
       </c>
       <c r="AC27" t="str">
-        <f>[1]!'00830.TW-ReceivablesTurnoverRatio'</f>
+        <f>[1]!'00850.TW-ReceivablesTurnoverRatio'</f>
         <v>--</v>
       </c>
       <c r="AD27" t="str">
-        <f>[1]!'00830.TW-InventoryTurnoverRatio'</f>
+        <f>[1]!'00850.TW-InventoryTurnoverRatio'</f>
         <v>--</v>
       </c>
       <c r="AE27" t="str">
-        <f>[1]!'00830.TW-CashDividend'</f>
-        <v>0.12</v>
+        <f>[1]!'00850.TW-CashDividend'</f>
+        <v>1.48</v>
       </c>
       <c r="AF27" t="str">
-        <f>[1]!'00830.TW-StockDividend'</f>
+        <f>[1]!'00850.TW-StockDividend'</f>
         <v>--</v>
       </c>
       <c r="AG27">
-        <f>[1]!'00830.TW-CashDividendYieldRate'</f>
-        <v>0.39</v>
+        <f>[1]!'00850.TW-CashDividendYieldRate'</f>
+        <v>4.43</v>
       </c>
       <c r="AH27" t="str">
-        <f>[1]!'00830.TW-ChipsField25'</f>
-        <v>2023/01/30</v>
+        <f>[1]!'00850.TW-ChipsField25'</f>
+        <v>2022/11/16</v>
       </c>
       <c r="AI27" t="str">
-        <f>[1]!'00830.TW-ChipsField26'</f>
-        <v>2023/03/02</v>
+        <f>[1]!'00850.TW-ChipsField26'</f>
+        <v>2022/12/20</v>
       </c>
       <c r="AJ27" t="str">
-        <f>[1]!'00830.TW-ChipsField27'</f>
+        <f>[1]!'00850.TW-ChipsField27'</f>
         <v>--</v>
       </c>
       <c r="AK27" t="str">
-        <f>[1]!'00830.TW-Beta'</f>
+        <f>[1]!'00850.TW-Beta'</f>
         <v>--</v>
       </c>
       <c r="AL27" t="str">
-        <f>[1]!'00830.TW-Capital'</f>
+        <f>[1]!'00850.TW-Capital'</f>
         <v>--</v>
       </c>
       <c r="AM27" t="str">
-        <f>[1]!'00830.TW-MarketValue'</f>
+        <f>[1]!'00850.TW-MarketValue'</f>
         <v>--</v>
       </c>
       <c r="AN27">
-        <f>[1]!'00830.TW-ManagementPercent'</f>
-        <v>0.97</v>
+        <f>[1]!'00850.TW-ManagementPercent'</f>
+        <v>0.42</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
-        <f>[1]!'00850.TW-ID'</f>
-        <v>00850</v>
+        <f>[1]!'00878.TW-ID'</f>
+        <v>00878</v>
       </c>
       <c r="B28" t="str">
-        <f>[1]!'00850.TW-Name'</f>
-        <v>元大臺灣ESG永續</v>
+        <f>[1]!'00878.TW-Name'</f>
+        <v>國泰永續高股息</v>
       </c>
       <c r="C28">
-        <f>[1]!'00850.TW-Bid'</f>
-        <v>33.409999999999997</v>
+        <f>[1]!'00878.TW-Bid'</f>
+        <v>18.78</v>
       </c>
       <c r="D28">
-        <f>[1]!'00850.TW-Ask'</f>
-        <v>33.42</v>
+        <f>[1]!'00878.TW-Ask'</f>
+        <v>18.79</v>
       </c>
       <c r="E28">
-        <f>[1]!'00850.TW-Price'</f>
-        <v>33.409999999999997</v>
+        <f>[1]!'00878.TW-Price'</f>
+        <v>18.78</v>
       </c>
       <c r="F28">
-        <f>[1]!'00850.TW-PriceChange'</f>
-        <v>0.32</v>
+        <f>[1]!'00878.TW-PriceChange'</f>
+        <v>0.13</v>
       </c>
       <c r="G28">
-        <f>[1]!'00850.TW-PriceChangeRatio'</f>
-        <v>0.97</v>
+        <f>[1]!'00878.TW-PriceChangeRatio'</f>
+        <v>0.7</v>
       </c>
       <c r="H28">
-        <f>[1]!'00850.TW-Volume'</f>
-        <v>67</v>
+        <f>[1]!'00878.TW-Volume'</f>
+        <v>1160</v>
       </c>
       <c r="I28">
-        <f>[1]!'00850.TW-BestBidSize'</f>
-        <v>34</v>
+        <f>[1]!'00878.TW-BestBidSize'</f>
+        <v>425</v>
       </c>
       <c r="J28">
-        <f>[1]!'00850.TW-BestAskSize'</f>
-        <v>3</v>
+        <f>[1]!'00878.TW-BestAskSize'</f>
+        <v>1642</v>
       </c>
       <c r="K28">
-        <f>[1]!'00850.TW-TotalVolume'</f>
-        <v>1647</v>
+        <f>[1]!'00878.TW-TotalVolume'</f>
+        <v>42608</v>
       </c>
       <c r="L28">
-        <f>[1]!'00850.TW-High'</f>
-        <v>33.409999999999997</v>
+        <f>[1]!'00878.TW-High'</f>
+        <v>18.79</v>
       </c>
       <c r="M28">
-        <f>[1]!'00850.TW-Low'</f>
-        <v>33.14</v>
+        <f>[1]!'00878.TW-Low'</f>
+        <v>18.66</v>
       </c>
       <c r="N28">
-        <f>[1]!'00850.TW-Open'</f>
-        <v>33.14</v>
+        <f>[1]!'00878.TW-Open'</f>
+        <v>18.66</v>
       </c>
       <c r="O28" t="str">
-        <f>[1]!'00850.TW-Beta'</f>
+        <f>[1]!'00878.TW-Beta'</f>
         <v>--</v>
       </c>
       <c r="P28" t="str">
-        <f>[1]!'00850.TW-PERatio'</f>
+        <f>[1]!'00878.TW-PERatio'</f>
         <v>--</v>
       </c>
       <c r="Q28" t="str">
-        <f>[1]!'00850.TW-PBRatio'</f>
+        <f>[1]!'00878.TW-PBRatio'</f>
         <v>--</v>
       </c>
       <c r="R28" t="str">
-        <f>[1]!'00850.TW-ROE'</f>
+        <f>[1]!'00878.TW-ROE'</f>
         <v>--</v>
       </c>
       <c r="S28" t="str">
-        <f>[1]!'00850.TW-ReturnOnAssets'</f>
+        <f>[1]!'00878.TW-ReturnOnAssets'</f>
         <v>--</v>
       </c>
       <c r="T28" t="str">
-        <f>[1]!'00850.TW-ProfitMargin'</f>
+        <f>[1]!'00878.TW-ProfitMargin'</f>
         <v>--</v>
       </c>
       <c r="U28" t="str">
-        <f>[1]!'00850.TW-OperatingProfitRatio'</f>
+        <f>[1]!'00878.TW-OperatingProfitRatio'</f>
         <v>--</v>
       </c>
       <c r="V28" t="str">
-        <f>[1]!'00850.TW-NetProfitMargin'</f>
+        <f>[1]!'00878.TW-NetProfitMargin'</f>
         <v>--</v>
       </c>
       <c r="W28" t="str">
-        <f>[1]!'00850.TW-StockNetValue'</f>
+        <f>[1]!'00878.TW-StockNetValue'</f>
         <v>--</v>
       </c>
       <c r="X28" t="str">
-        <f>[1]!'00850.TW-Profit'</f>
+        <f>[1]!'00878.TW-Profit'</f>
         <v>--</v>
       </c>
       <c r="Y28" t="str">
-        <f>[1]!'00850.TW-CurrentRatio'</f>
+        <f>[1]!'00878.TW-CurrentRatio'</f>
         <v>--</v>
       </c>
       <c r="Z28" t="str">
-        <f>[1]!'00850.TW-QuickRatio'</f>
+        <f>[1]!'00878.TW-QuickRatio'</f>
         <v>--</v>
       </c>
       <c r="AA28" t="str">
-        <f>[1]!'00850.TW-LiabilityRatio'</f>
+        <f>[1]!'00878.TW-LiabilityRatio'</f>
         <v>--</v>
       </c>
       <c r="AB28" t="str">
-        <f>[1]!'00850.TW-TimesInterestEarne'</f>
+        <f>[1]!'00878.TW-TimesInterestEarne'</f>
         <v>--</v>
       </c>
       <c r="AC28" t="str">
-        <f>[1]!'00850.TW-ReceivablesTurnoverRatio'</f>
+        <f>[1]!'00878.TW-ReceivablesTurnoverRatio'</f>
         <v>--</v>
       </c>
       <c r="AD28" t="str">
-        <f>[1]!'00850.TW-InventoryTurnoverRatio'</f>
+        <f>[1]!'00878.TW-InventoryTurnoverRatio'</f>
         <v>--</v>
       </c>
       <c r="AE28" t="str">
-        <f>[1]!'00850.TW-CashDividend'</f>
-        <v>1.48</v>
+        <f>[1]!'00878.TW-CashDividend'</f>
+        <v>0.27</v>
       </c>
       <c r="AF28" t="str">
-        <f>[1]!'00850.TW-StockDividend'</f>
+        <f>[1]!'00878.TW-StockDividend'</f>
         <v>--</v>
       </c>
       <c r="AG28">
-        <f>[1]!'00850.TW-CashDividendYieldRate'</f>
-        <v>4.43</v>
+        <f>[1]!'00878.TW-CashDividendYieldRate'</f>
+        <v>5.86</v>
       </c>
       <c r="AH28" t="str">
-        <f>[1]!'00850.TW-ChipsField25'</f>
-        <v>2022/11/16</v>
+        <f>[1]!'00878.TW-ChipsField25'</f>
+        <v>2023/05/17</v>
       </c>
       <c r="AI28" t="str">
-        <f>[1]!'00850.TW-ChipsField26'</f>
-        <v>2022/12/20</v>
+        <f>[1]!'00878.TW-ChipsField26'</f>
+        <v>2023/06/12</v>
       </c>
       <c r="AJ28" t="str">
-        <f>[1]!'00850.TW-ChipsField27'</f>
+        <f>[1]!'00878.TW-ChipsField27'</f>
         <v>--</v>
       </c>
       <c r="AK28" t="str">
-        <f>[1]!'00850.TW-Beta'</f>
+        <f>[1]!'00878.TW-Beta'</f>
         <v>--</v>
       </c>
       <c r="AL28" t="str">
-        <f>[1]!'00850.TW-Capital'</f>
+        <f>[1]!'00878.TW-Capital'</f>
         <v>--</v>
       </c>
       <c r="AM28" t="str">
-        <f>[1]!'00850.TW-MarketValue'</f>
+        <f>[1]!'00878.TW-MarketValue'</f>
         <v>--</v>
       </c>
       <c r="AN28">
-        <f>[1]!'00850.TW-ManagementPercent'</f>
-        <v>0.42</v>
+        <f>[1]!'00878.TW-ManagementPercent'</f>
+        <v>0.64</v>
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
-        <f>[1]!'00878.TW-ID'</f>
-        <v>00878</v>
+        <f>[1]!'00881.TW-ID'</f>
+        <v>00881</v>
       </c>
       <c r="B29" t="str">
-        <f>[1]!'00878.TW-Name'</f>
-        <v>國泰永續高股息</v>
+        <f>[1]!'00881.TW-Name'</f>
+        <v>國泰台灣5G+</v>
       </c>
       <c r="C29">
-        <f>[1]!'00878.TW-Bid'</f>
-        <v>18.78</v>
+        <f>[1]!'00881.TW-Bid'</f>
+        <v>16.38</v>
       </c>
       <c r="D29">
-        <f>[1]!'00878.TW-Ask'</f>
-        <v>18.79</v>
+        <f>[1]!'00881.TW-Ask'</f>
+        <v>16.39</v>
       </c>
       <c r="E29">
-        <f>[1]!'00878.TW-Price'</f>
-        <v>18.78</v>
+        <f>[1]!'00881.TW-Price'</f>
+        <v>16.38</v>
       </c>
       <c r="F29">
-        <f>[1]!'00878.TW-PriceChange'</f>
-        <v>0.13</v>
+        <f>[1]!'00881.TW-PriceChange'</f>
+        <v>0.23</v>
       </c>
       <c r="G29">
-        <f>[1]!'00878.TW-PriceChangeRatio'</f>
-        <v>0.7</v>
+        <f>[1]!'00881.TW-PriceChangeRatio'</f>
+        <v>1.42</v>
       </c>
       <c r="H29">
-        <f>[1]!'00878.TW-Volume'</f>
-        <v>1160</v>
+        <f>[1]!'00881.TW-Volume'</f>
+        <v>406</v>
       </c>
       <c r="I29">
-        <f>[1]!'00878.TW-BestBidSize'</f>
-        <v>425</v>
+        <f>[1]!'00881.TW-BestBidSize'</f>
+        <v>116</v>
       </c>
       <c r="J29">
-        <f>[1]!'00878.TW-BestAskSize'</f>
-        <v>1642</v>
+        <f>[1]!'00881.TW-BestAskSize'</f>
+        <v>919</v>
       </c>
       <c r="K29">
-        <f>[1]!'00878.TW-TotalVolume'</f>
-        <v>42608</v>
+        <f>[1]!'00881.TW-TotalVolume'</f>
+        <v>21591</v>
       </c>
       <c r="L29">
-        <f>[1]!'00878.TW-High'</f>
-        <v>18.79</v>
+        <f>[1]!'00881.TW-High'</f>
+        <v>16.39</v>
       </c>
       <c r="M29">
-        <f>[1]!'00878.TW-Low'</f>
-        <v>18.66</v>
+        <f>[1]!'00881.TW-Low'</f>
+        <v>16.149999999999999</v>
       </c>
       <c r="N29">
-        <f>[1]!'00878.TW-Open'</f>
-        <v>18.66</v>
+        <f>[1]!'00881.TW-Open'</f>
+        <v>16.149999999999999</v>
       </c>
       <c r="O29" t="str">
-        <f>[1]!'00878.TW-Beta'</f>
+        <f>[1]!'00881.TW-Beta'</f>
         <v>--</v>
       </c>
       <c r="P29" t="str">
-        <f>[1]!'00878.TW-PERatio'</f>
+        <f>[1]!'00881.TW-PERatio'</f>
         <v>--</v>
       </c>
       <c r="Q29" t="str">
-        <f>[1]!'00878.TW-PBRatio'</f>
+        <f>[1]!'00881.TW-PBRatio'</f>
         <v>--</v>
       </c>
       <c r="R29" t="str">
-        <f>[1]!'00878.TW-ROE'</f>
+        <f>[1]!'00881.TW-ROE'</f>
         <v>--</v>
       </c>
       <c r="S29" t="str">
-        <f>[1]!'00878.TW-ReturnOnAssets'</f>
+        <f>[1]!'00881.TW-ReturnOnAssets'</f>
         <v>--</v>
       </c>
       <c r="T29" t="str">
-        <f>[1]!'00878.TW-ProfitMargin'</f>
+        <f>[1]!'00881.TW-ProfitMargin'</f>
         <v>--</v>
       </c>
       <c r="U29" t="str">
-        <f>[1]!'00878.TW-OperatingProfitRatio'</f>
+        <f>[1]!'00881.TW-OperatingProfitRatio'</f>
         <v>--</v>
       </c>
       <c r="V29" t="str">
-        <f>[1]!'00878.TW-NetProfitMargin'</f>
+        <f>[1]!'00881.TW-NetProfitMargin'</f>
         <v>--</v>
       </c>
       <c r="W29" t="str">
-        <f>[1]!'00878.TW-StockNetValue'</f>
+        <f>[1]!'00881.TW-StockNetValue'</f>
         <v>--</v>
       </c>
       <c r="X29" t="str">
-        <f>[1]!'00878.TW-Profit'</f>
+        <f>[1]!'00881.TW-Profit'</f>
         <v>--</v>
       </c>
       <c r="Y29" t="str">
-        <f>[1]!'00878.TW-CurrentRatio'</f>
+        <f>[1]!'00881.TW-CurrentRatio'</f>
         <v>--</v>
       </c>
       <c r="Z29" t="str">
-        <f>[1]!'00878.TW-QuickRatio'</f>
+        <f>[1]!'00881.TW-QuickRatio'</f>
         <v>--</v>
       </c>
       <c r="AA29" t="str">
-        <f>[1]!'00878.TW-LiabilityRatio'</f>
+        <f>[1]!'00881.TW-LiabilityRatio'</f>
         <v>--</v>
       </c>
       <c r="AB29" t="str">
-        <f>[1]!'00878.TW-TimesInterestEarne'</f>
+        <f>[1]!'00881.TW-TimesInterestEarne'</f>
         <v>--</v>
       </c>
       <c r="AC29" t="str">
-        <f>[1]!'00878.TW-ReceivablesTurnoverRatio'</f>
+        <f>[1]!'00881.TW-ReceivablesTurnoverRatio'</f>
         <v>--</v>
       </c>
       <c r="AD29" t="str">
-        <f>[1]!'00878.TW-InventoryTurnoverRatio'</f>
+        <f>[1]!'00881.TW-InventoryTurnoverRatio'</f>
         <v>--</v>
       </c>
       <c r="AE29" t="str">
-        <f>[1]!'00878.TW-CashDividend'</f>
-        <v>0.27</v>
+        <f>[1]!'00881.TW-CashDividend'</f>
+        <v>0.35</v>
       </c>
       <c r="AF29" t="str">
-        <f>[1]!'00878.TW-StockDividend'</f>
+        <f>[1]!'00881.TW-StockDividend'</f>
         <v>--</v>
       </c>
       <c r="AG29">
-        <f>[1]!'00878.TW-CashDividendYieldRate'</f>
-        <v>5.86</v>
+        <f>[1]!'00881.TW-CashDividendYieldRate'</f>
+        <v>3.72</v>
       </c>
       <c r="AH29" t="str">
-        <f>[1]!'00878.TW-ChipsField25'</f>
-        <v>2023/05/17</v>
+        <f>[1]!'00881.TW-ChipsField25'</f>
+        <v>2023/01/30</v>
       </c>
       <c r="AI29" t="str">
-        <f>[1]!'00878.TW-ChipsField26'</f>
-        <v>2023/06/12</v>
+        <f>[1]!'00881.TW-ChipsField26'</f>
+        <v>2023/03/02</v>
       </c>
       <c r="AJ29" t="str">
-        <f>[1]!'00878.TW-ChipsField27'</f>
+        <f>[1]!'00881.TW-ChipsField27'</f>
         <v>--</v>
       </c>
       <c r="AK29" t="str">
-        <f>[1]!'00878.TW-Beta'</f>
+        <f>[1]!'00881.TW-Beta'</f>
         <v>--</v>
       </c>
       <c r="AL29" t="str">
-        <f>[1]!'00878.TW-Capital'</f>
+        <f>[1]!'00881.TW-Capital'</f>
         <v>--</v>
       </c>
       <c r="AM29" t="str">
-        <f>[1]!'00878.TW-MarketValue'</f>
+        <f>[1]!'00881.TW-MarketValue'</f>
         <v>--</v>
       </c>
       <c r="AN29">
-        <f>[1]!'00878.TW-ManagementPercent'</f>
-        <v>0.64</v>
+        <f>[1]!'00881.TW-ManagementPercent'</f>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
-        <f>[1]!'00881.TW-ID'</f>
-        <v>00881</v>
+        <f>[1]!'00882.TW-ID'</f>
+        <v>00882</v>
       </c>
       <c r="B30" t="str">
-        <f>[1]!'00881.TW-Name'</f>
-        <v>國泰台灣5G+</v>
+        <f>[1]!'00882.TW-Name'</f>
+        <v>中信中國高股息</v>
       </c>
       <c r="C30">
-        <f>[1]!'00881.TW-Bid'</f>
-        <v>16.38</v>
+        <f>[1]!'00882.TW-Bid'</f>
+        <v>11.63</v>
       </c>
       <c r="D30">
-        <f>[1]!'00881.TW-Ask'</f>
-        <v>16.39</v>
+        <f>[1]!'00882.TW-Ask'</f>
+        <v>11.64</v>
       </c>
       <c r="E30">
-        <f>[1]!'00881.TW-Price'</f>
-        <v>16.38</v>
+        <f>[1]!'00882.TW-Price'</f>
+        <v>11.64</v>
       </c>
       <c r="F30">
-        <f>[1]!'00881.TW-PriceChange'</f>
-        <v>0.23</v>
+        <f>[1]!'00882.TW-PriceChange'</f>
+        <v>-0.01</v>
       </c>
       <c r="G30">
-        <f>[1]!'00881.TW-PriceChangeRatio'</f>
-        <v>1.42</v>
+        <f>[1]!'00882.TW-PriceChangeRatio'</f>
+        <v>-0.09</v>
       </c>
       <c r="H30">
-        <f>[1]!'00881.TW-Volume'</f>
-        <v>406</v>
+        <f>[1]!'00882.TW-Volume'</f>
+        <v>414</v>
       </c>
       <c r="I30">
-        <f>[1]!'00881.TW-BestBidSize'</f>
-        <v>116</v>
+        <f>[1]!'00882.TW-BestBidSize'</f>
+        <v>445</v>
       </c>
       <c r="J30">
-        <f>[1]!'00881.TW-BestAskSize'</f>
-        <v>919</v>
+        <f>[1]!'00882.TW-BestAskSize'</f>
+        <v>168</v>
       </c>
       <c r="K30">
-        <f>[1]!'00881.TW-TotalVolume'</f>
-        <v>21591</v>
+        <f>[1]!'00882.TW-TotalVolume'</f>
+        <v>25603</v>
       </c>
       <c r="L30">
-        <f>[1]!'00881.TW-High'</f>
-        <v>16.39</v>
+        <f>[1]!'00882.TW-High'</f>
+        <v>11.72</v>
       </c>
       <c r="M30">
-        <f>[1]!'00881.TW-Low'</f>
-        <v>16.149999999999999</v>
+        <f>[1]!'00882.TW-Low'</f>
+        <v>11.6</v>
       </c>
       <c r="N30">
-        <f>[1]!'00881.TW-Open'</f>
-        <v>16.149999999999999</v>
+        <f>[1]!'00882.TW-Open'</f>
+        <v>11.68</v>
       </c>
       <c r="O30" t="str">
-        <f>[1]!'00881.TW-Beta'</f>
+        <f>[1]!'00882.TW-Beta'</f>
         <v>--</v>
       </c>
       <c r="P30" t="str">
-        <f>[1]!'00881.TW-PERatio'</f>
+        <f>[1]!'00882.TW-PERatio'</f>
         <v>--</v>
       </c>
       <c r="Q30" t="str">
-        <f>[1]!'00881.TW-PBRatio'</f>
+        <f>[1]!'00882.TW-PBRatio'</f>
         <v>--</v>
       </c>
       <c r="R30" t="str">
-        <f>[1]!'00881.TW-ROE'</f>
+        <f>[1]!'00882.TW-ROE'</f>
         <v>--</v>
       </c>
       <c r="S30" t="str">
-        <f>[1]!'00881.TW-ReturnOnAssets'</f>
+        <f>[1]!'00882.TW-ReturnOnAssets'</f>
         <v>--</v>
       </c>
       <c r="T30" t="str">
-        <f>[1]!'00881.TW-ProfitMargin'</f>
+        <f>[1]!'00882.TW-ProfitMargin'</f>
         <v>--</v>
       </c>
       <c r="U30" t="str">
-        <f>[1]!'00881.TW-OperatingProfitRatio'</f>
+        <f>[1]!'00882.TW-OperatingProfitRatio'</f>
         <v>--</v>
       </c>
       <c r="V30" t="str">
-        <f>[1]!'00881.TW-NetProfitMargin'</f>
+        <f>[1]!'00882.TW-NetProfitMargin'</f>
         <v>--</v>
       </c>
       <c r="W30" t="str">
-        <f>[1]!'00881.TW-StockNetValue'</f>
+        <f>[1]!'00882.TW-StockNetValue'</f>
         <v>--</v>
       </c>
       <c r="X30" t="str">
-        <f>[1]!'00881.TW-Profit'</f>
+        <f>[1]!'00882.TW-Profit'</f>
         <v>--</v>
       </c>
       <c r="Y30" t="str">
-        <f>[1]!'00881.TW-CurrentRatio'</f>
+        <f>[1]!'00882.TW-CurrentRatio'</f>
         <v>--</v>
       </c>
       <c r="Z30" t="str">
-        <f>[1]!'00881.TW-QuickRatio'</f>
+        <f>[1]!'00882.TW-QuickRatio'</f>
         <v>--</v>
       </c>
       <c r="AA30" t="str">
-        <f>[1]!'00881.TW-LiabilityRatio'</f>
+        <f>[1]!'00882.TW-LiabilityRatio'</f>
         <v>--</v>
       </c>
       <c r="AB30" t="str">
-        <f>[1]!'00881.TW-TimesInterestEarne'</f>
+        <f>[1]!'00882.TW-TimesInterestEarne'</f>
         <v>--</v>
       </c>
       <c r="AC30" t="str">
-        <f>[1]!'00881.TW-ReceivablesTurnoverRatio'</f>
+        <f>[1]!'00882.TW-ReceivablesTurnoverRatio'</f>
         <v>--</v>
       </c>
       <c r="AD30" t="str">
-        <f>[1]!'00881.TW-InventoryTurnoverRatio'</f>
+        <f>[1]!'00882.TW-InventoryTurnoverRatio'</f>
         <v>--</v>
       </c>
       <c r="AE30" t="str">
-        <f>[1]!'00881.TW-CashDividend'</f>
-        <v>0.35</v>
+        <f>[1]!'00882.TW-CashDividend'</f>
+        <v>0.30</v>
       </c>
       <c r="AF30" t="str">
-        <f>[1]!'00881.TW-StockDividend'</f>
+        <f>[1]!'00882.TW-StockDividend'</f>
         <v>--</v>
       </c>
       <c r="AG30">
-        <f>[1]!'00881.TW-CashDividendYieldRate'</f>
-        <v>3.72</v>
+        <f>[1]!'00882.TW-CashDividendYieldRate'</f>
+        <v>9.8800000000000008</v>
       </c>
       <c r="AH30" t="str">
-        <f>[1]!'00881.TW-ChipsField25'</f>
-        <v>2023/01/30</v>
+        <f>[1]!'00882.TW-ChipsField25'</f>
+        <v>2023/01/17</v>
       </c>
       <c r="AI30" t="str">
-        <f>[1]!'00881.TW-ChipsField26'</f>
-        <v>2023/03/02</v>
+        <f>[1]!'00882.TW-ChipsField26'</f>
+        <v>2023/02/20</v>
       </c>
       <c r="AJ30" t="str">
-        <f>[1]!'00881.TW-ChipsField27'</f>
+        <f>[1]!'00882.TW-ChipsField27'</f>
         <v>--</v>
       </c>
       <c r="AK30" t="str">
-        <f>[1]!'00881.TW-Beta'</f>
+        <f>[1]!'00882.TW-Beta'</f>
         <v>--</v>
       </c>
       <c r="AL30" t="str">
-        <f>[1]!'00881.TW-Capital'</f>
+        <f>[1]!'00882.TW-Capital'</f>
         <v>--</v>
       </c>
       <c r="AM30" t="str">
-        <f>[1]!'00881.TW-MarketValue'</f>
+        <f>[1]!'00882.TW-MarketValue'</f>
         <v>--</v>
       </c>
       <c r="AN30">
-        <f>[1]!'00881.TW-ManagementPercent'</f>
-        <v>0.57999999999999996</v>
+        <f>[1]!'00882.TW-ManagementPercent'</f>
+        <v>1.38</v>
       </c>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
-        <f>[1]!'00882.TW-ID'</f>
-        <v>00882</v>
+        <f>[1]!'00885.TW-ID'</f>
+        <v>00885</v>
       </c>
       <c r="B31" t="str">
-        <f>[1]!'00882.TW-Name'</f>
-        <v>中信中國高股息</v>
+        <f>[1]!'00885.TW-Name'</f>
+        <v>富邦越南</v>
       </c>
       <c r="C31">
-        <f>[1]!'00882.TW-Bid'</f>
-        <v>11.63</v>
+        <f>[1]!'00885.TW-Bid'</f>
+        <v>11.73</v>
       </c>
       <c r="D31">
-        <f>[1]!'00882.TW-Ask'</f>
-        <v>11.64</v>
+        <f>[1]!'00885.TW-Ask'</f>
+        <v>11.74</v>
       </c>
       <c r="E31">
-        <f>[1]!'00882.TW-Price'</f>
-        <v>11.64</v>
+        <f>[1]!'00885.TW-Price'</f>
+        <v>11.74</v>
       </c>
       <c r="F31">
-        <f>[1]!'00882.TW-PriceChange'</f>
-        <v>-0.01</v>
+        <f>[1]!'00885.TW-PriceChange'</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G31">
-        <f>[1]!'00882.TW-PriceChangeRatio'</f>
-        <v>-0.09</v>
+        <f>[1]!'00885.TW-PriceChangeRatio'</f>
+        <v>1.21</v>
       </c>
       <c r="H31">
-        <f>[1]!'00882.TW-Volume'</f>
-        <v>414</v>
+        <f>[1]!'00885.TW-Volume'</f>
+        <v>425</v>
       </c>
       <c r="I31">
-        <f>[1]!'00882.TW-BestBidSize'</f>
-        <v>445</v>
+        <f>[1]!'00885.TW-BestBidSize'</f>
+        <v>593</v>
       </c>
       <c r="J31">
-        <f>[1]!'00882.TW-BestAskSize'</f>
-        <v>168</v>
+        <f>[1]!'00885.TW-BestAskSize'</f>
+        <v>145</v>
       </c>
       <c r="K31">
-        <f>[1]!'00882.TW-TotalVolume'</f>
-        <v>25603</v>
+        <f>[1]!'00885.TW-TotalVolume'</f>
+        <v>21911</v>
       </c>
       <c r="L31">
-        <f>[1]!'00882.TW-High'</f>
-        <v>11.72</v>
+        <f>[1]!'00885.TW-High'</f>
+        <v>11.76</v>
       </c>
       <c r="M31">
-        <f>[1]!'00882.TW-Low'</f>
-        <v>11.6</v>
+        <f>[1]!'00885.TW-Low'</f>
+        <v>11.71</v>
       </c>
       <c r="N31">
-        <f>[1]!'00882.TW-Open'</f>
-        <v>11.68</v>
+        <f>[1]!'00885.TW-Open'</f>
+        <v>11.74</v>
       </c>
       <c r="O31" t="str">
-        <f>[1]!'00882.TW-Beta'</f>
+        <f>[1]!'00885.TW-Beta'</f>
         <v>--</v>
       </c>
       <c r="P31" t="str">
-        <f>[1]!'00882.TW-PERatio'</f>
+        <f>[1]!'00885.TW-PERatio'</f>
         <v>--</v>
       </c>
       <c r="Q31" t="str">
-        <f>[1]!'00882.TW-PBRatio'</f>
+        <f>[1]!'00885.TW-PBRatio'</f>
         <v>--</v>
       </c>
       <c r="R31" t="str">
-        <f>[1]!'00882.TW-ROE'</f>
+        <f>[1]!'00885.TW-ROE'</f>
         <v>--</v>
       </c>
       <c r="S31" t="str">
-        <f>[1]!'00882.TW-ReturnOnAssets'</f>
+        <f>[1]!'00885.TW-ReturnOnAssets'</f>
         <v>--</v>
       </c>
       <c r="T31" t="str">
-        <f>[1]!'00882.TW-ProfitMargin'</f>
+        <f>[1]!'00885.TW-ProfitMargin'</f>
         <v>--</v>
       </c>
       <c r="U31" t="str">
-        <f>[1]!'00882.TW-OperatingProfitRatio'</f>
+        <f>[1]!'00885.TW-OperatingProfitRatio'</f>
         <v>--</v>
       </c>
       <c r="V31" t="str">
-        <f>[1]!'00882.TW-NetProfitMargin'</f>
+        <f>[1]!'00885.TW-NetProfitMargin'</f>
         <v>--</v>
       </c>
       <c r="W31" t="str">
-        <f>[1]!'00882.TW-StockNetValue'</f>
+        <f>[1]!'00885.TW-StockNetValue'</f>
         <v>--</v>
       </c>
       <c r="X31" t="str">
-        <f>[1]!'00882.TW-Profit'</f>
+        <f>[1]!'00885.TW-Profit'</f>
         <v>--</v>
       </c>
       <c r="Y31" t="str">
-        <f>[1]!'00882.TW-CurrentRatio'</f>
+        <f>[1]!'00885.TW-CurrentRatio'</f>
         <v>--</v>
       </c>
       <c r="Z31" t="str">
-        <f>[1]!'00882.TW-QuickRatio'</f>
+        <f>[1]!'00885.TW-QuickRatio'</f>
         <v>--</v>
       </c>
       <c r="AA31" t="str">
-        <f>[1]!'00882.TW-LiabilityRatio'</f>
+        <f>[1]!'00885.TW-LiabilityRatio'</f>
         <v>--</v>
       </c>
       <c r="AB31" t="str">
-        <f>[1]!'00882.TW-TimesInterestEarne'</f>
+        <f>[1]!'00885.TW-TimesInterestEarne'</f>
         <v>--</v>
       </c>
       <c r="AC31" t="str">
-        <f>[1]!'00882.TW-ReceivablesTurnoverRatio'</f>
+        <f>[1]!'00885.TW-ReceivablesTurnoverRatio'</f>
         <v>--</v>
       </c>
       <c r="AD31" t="str">
-        <f>[1]!'00882.TW-InventoryTurnoverRatio'</f>
+        <f>[1]!'00885.TW-InventoryTurnoverRatio'</f>
         <v>--</v>
       </c>
       <c r="AE31" t="str">
-        <f>[1]!'00882.TW-CashDividend'</f>
-        <v>0.30</v>
+        <f>[1]!'00885.TW-CashDividend'</f>
+        <v>--</v>
       </c>
       <c r="AF31" t="str">
-        <f>[1]!'00882.TW-StockDividend'</f>
+        <f>[1]!'00885.TW-StockDividend'</f>
         <v>--</v>
       </c>
       <c r="AG31">
-        <f>[1]!'00882.TW-CashDividendYieldRate'</f>
-        <v>9.8800000000000008</v>
+        <f>[1]!'00885.TW-CashDividendYieldRate'</f>
+        <v>0</v>
       </c>
       <c r="AH31" t="str">
-        <f>[1]!'00882.TW-ChipsField25'</f>
-        <v>2023/01/17</v>
+        <f>[1]!'00885.TW-ChipsField25'</f>
+        <v>--</v>
       </c>
       <c r="AI31" t="str">
-        <f>[1]!'00882.TW-ChipsField26'</f>
-        <v>2023/02/20</v>
+        <f>[1]!'00885.TW-ChipsField26'</f>
+        <v>--</v>
       </c>
       <c r="AJ31" t="str">
-        <f>[1]!'00882.TW-ChipsField27'</f>
+        <f>[1]!'00885.TW-ChipsField27'</f>
         <v>--</v>
       </c>
       <c r="AK31" t="str">
-        <f>[1]!'00882.TW-Beta'</f>
+        <f>[1]!'00885.TW-Beta'</f>
         <v>--</v>
       </c>
       <c r="AL31" t="str">
-        <f>[1]!'00882.TW-Capital'</f>
+        <f>[1]!'00885.TW-Capital'</f>
         <v>--</v>
       </c>
       <c r="AM31" t="str">
-        <f>[1]!'00882.TW-MarketValue'</f>
+        <f>[1]!'00885.TW-MarketValue'</f>
         <v>--</v>
       </c>
       <c r="AN31">
-        <f>[1]!'00882.TW-ManagementPercent'</f>
-        <v>1.38</v>
+        <f>[1]!'00885.TW-ManagementPercent'</f>
+        <v>1.28</v>
       </c>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
-        <f>[1]!'00885.TW-ID'</f>
-        <v>00885</v>
+        <f>[1]!'00888.TW-ID'</f>
+        <v>00888</v>
       </c>
       <c r="B32" t="str">
-        <f>[1]!'00885.TW-Name'</f>
-        <v>富邦越南</v>
+        <f>[1]!'00888.TW-Name'</f>
+        <v>永豐台灣ESG</v>
       </c>
       <c r="C32">
-        <f>[1]!'00885.TW-Bid'</f>
-        <v>11.73</v>
+        <f>[1]!'00888.TW-Bid'</f>
+        <v>14.08</v>
       </c>
       <c r="D32">
-        <f>[1]!'00885.TW-Ask'</f>
-        <v>11.74</v>
+        <f>[1]!'00888.TW-Ask'</f>
+        <v>14.09</v>
       </c>
       <c r="E32">
-        <f>[1]!'00885.TW-Price'</f>
-        <v>11.74</v>
+        <f>[1]!'00888.TW-Price'</f>
+        <v>14.09</v>
       </c>
       <c r="F32">
-        <f>[1]!'00885.TW-PriceChange'</f>
-        <v>0.14000000000000001</v>
+        <f>[1]!'00888.TW-PriceChange'</f>
+        <v>0.16</v>
       </c>
       <c r="G32">
-        <f>[1]!'00885.TW-PriceChangeRatio'</f>
-        <v>1.21</v>
+        <f>[1]!'00888.TW-PriceChangeRatio'</f>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H32">
-        <f>[1]!'00885.TW-Volume'</f>
-        <v>425</v>
+        <f>[1]!'00888.TW-Volume'</f>
+        <v>63</v>
       </c>
       <c r="I32">
-        <f>[1]!'00885.TW-BestBidSize'</f>
-        <v>593</v>
+        <f>[1]!'00888.TW-BestBidSize'</f>
+        <v>71</v>
       </c>
       <c r="J32">
-        <f>[1]!'00885.TW-BestAskSize'</f>
-        <v>145</v>
+        <f>[1]!'00888.TW-BestAskSize'</f>
+        <v>87</v>
       </c>
       <c r="K32">
-        <f>[1]!'00885.TW-TotalVolume'</f>
-        <v>21911</v>
+        <f>[1]!'00888.TW-TotalVolume'</f>
+        <v>5773</v>
       </c>
       <c r="L32">
-        <f>[1]!'00885.TW-High'</f>
-        <v>11.76</v>
+        <f>[1]!'00888.TW-High'</f>
+        <v>14.09</v>
       </c>
       <c r="M32">
-        <f>[1]!'00885.TW-Low'</f>
-        <v>11.71</v>
+        <f>[1]!'00888.TW-Low'</f>
+        <v>13.97</v>
       </c>
       <c r="N32">
-        <f>[1]!'00885.TW-Open'</f>
-        <v>11.74</v>
+        <f>[1]!'00888.TW-Open'</f>
+        <v>13.97</v>
       </c>
       <c r="O32" t="str">
-        <f>[1]!'00885.TW-Beta'</f>
+        <f>[1]!'00888.TW-Beta'</f>
         <v>--</v>
       </c>
       <c r="P32" t="str">
-        <f>[1]!'00885.TW-PERatio'</f>
+        <f>[1]!'00888.TW-PERatio'</f>
         <v>--</v>
       </c>
       <c r="Q32" t="str">
-        <f>[1]!'00885.TW-PBRatio'</f>
+        <f>[1]!'00888.TW-PBRatio'</f>
         <v>--</v>
       </c>
       <c r="R32" t="str">
-        <f>[1]!'00885.TW-ROE'</f>
+        <f>[1]!'00888.TW-ROE'</f>
         <v>--</v>
       </c>
       <c r="S32" t="str">
-        <f>[1]!'00885.TW-ReturnOnAssets'</f>
+        <f>[1]!'00888.TW-ReturnOnAssets'</f>
         <v>--</v>
       </c>
       <c r="T32" t="str">
-        <f>[1]!'00885.TW-ProfitMargin'</f>
+        <f>[1]!'00888.TW-ProfitMargin'</f>
         <v>--</v>
       </c>
       <c r="U32" t="str">
-        <f>[1]!'00885.TW-OperatingProfitRatio'</f>
+        <f>[1]!'00888.TW-OperatingProfitRatio'</f>
         <v>--</v>
       </c>
       <c r="V32" t="str">
-        <f>[1]!'00885.TW-NetProfitMargin'</f>
+        <f>[1]!'00888.TW-NetProfitMargin'</f>
         <v>--</v>
       </c>
       <c r="W32" t="str">
-        <f>[1]!'00885.TW-StockNetValue'</f>
+        <f>[1]!'00888.TW-StockNetValue'</f>
         <v>--</v>
       </c>
       <c r="X32" t="str">
-        <f>[1]!'00885.TW-Profit'</f>
+        <f>[1]!'00888.TW-Profit'</f>
         <v>--</v>
       </c>
       <c r="Y32" t="str">
-        <f>[1]!'00885.TW-CurrentRatio'</f>
+        <f>[1]!'00888.TW-CurrentRatio'</f>
         <v>--</v>
       </c>
       <c r="Z32" t="str">
-        <f>[1]!'00885.TW-QuickRatio'</f>
+        <f>[1]!'00888.TW-QuickRatio'</f>
         <v>--</v>
       </c>
       <c r="AA32" t="str">
-        <f>[1]!'00885.TW-LiabilityRatio'</f>
+        <f>[1]!'00888.TW-LiabilityRatio'</f>
         <v>--</v>
       </c>
       <c r="AB32" t="str">
-        <f>[1]!'00885.TW-TimesInterestEarne'</f>
+        <f>[1]!'00888.TW-TimesInterestEarne'</f>
         <v>--</v>
       </c>
       <c r="AC32" t="str">
-        <f>[1]!'00885.TW-ReceivablesTurnoverRatio'</f>
+        <f>[1]!'00888.TW-ReceivablesTurnoverRatio'</f>
         <v>--</v>
       </c>
       <c r="AD32" t="str">
-        <f>[1]!'00885.TW-InventoryTurnoverRatio'</f>
+        <f>[1]!'00888.TW-InventoryTurnoverRatio'</f>
         <v>--</v>
       </c>
       <c r="AE32" t="str">
-        <f>[1]!'00885.TW-CashDividend'</f>
-        <v>--</v>
+        <f>[1]!'00888.TW-CashDividend'</f>
+        <v>0.21</v>
       </c>
       <c r="AF32" t="str">
-        <f>[1]!'00885.TW-StockDividend'</f>
+        <f>[1]!'00888.TW-StockDividend'</f>
         <v>--</v>
       </c>
       <c r="AG32">
-        <f>[1]!'00885.TW-CashDividendYieldRate'</f>
-        <v>0</v>
+        <f>[1]!'00888.TW-CashDividendYieldRate'</f>
+        <v>5.61</v>
       </c>
       <c r="AH32" t="str">
-        <f>[1]!'00885.TW-ChipsField25'</f>
-        <v>--</v>
+        <f>[1]!'00888.TW-ChipsField25'</f>
+        <v>2023/04/21</v>
       </c>
       <c r="AI32" t="str">
-        <f>[1]!'00885.TW-ChipsField26'</f>
-        <v>--</v>
+        <f>[1]!'00888.TW-ChipsField26'</f>
+        <v>2023/05/22</v>
       </c>
       <c r="AJ32" t="str">
-        <f>[1]!'00885.TW-ChipsField27'</f>
+        <f>[1]!'00888.TW-ChipsField27'</f>
         <v>--</v>
       </c>
       <c r="AK32" t="str">
-        <f>[1]!'00885.TW-Beta'</f>
+        <f>[1]!'00888.TW-Beta'</f>
         <v>--</v>
       </c>
       <c r="AL32" t="str">
-        <f>[1]!'00885.TW-Capital'</f>
+        <f>[1]!'00888.TW-Capital'</f>
         <v>--</v>
       </c>
       <c r="AM32" t="str">
-        <f>[1]!'00885.TW-MarketValue'</f>
+        <f>[1]!'00888.TW-MarketValue'</f>
         <v>--</v>
       </c>
       <c r="AN32">
-        <f>[1]!'00885.TW-ManagementPercent'</f>
-        <v>1.28</v>
+        <f>[1]!'00888.TW-ManagementPercent'</f>
+        <v>0.63</v>
       </c>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
-        <f>[1]!'00888.TW-ID'</f>
-        <v>00888</v>
+        <f>[1]!'00892.TW-ID'</f>
+        <v>00892</v>
       </c>
       <c r="B33" t="str">
-        <f>[1]!'00888.TW-Name'</f>
-        <v>永豐台灣ESG</v>
+        <f>[1]!'00892.TW-Name'</f>
+        <v>富邦台灣半導體</v>
       </c>
       <c r="C33">
-        <f>[1]!'00888.TW-Bid'</f>
-        <v>14.08</v>
+        <f>[1]!'00892.TW-Bid'</f>
+        <v>12.61</v>
       </c>
       <c r="D33">
-        <f>[1]!'00888.TW-Ask'</f>
-        <v>14.09</v>
+        <f>[1]!'00892.TW-Ask'</f>
+        <v>12.62</v>
       </c>
       <c r="E33">
-        <f>[1]!'00888.TW-Price'</f>
-        <v>14.09</v>
+        <f>[1]!'00892.TW-Price'</f>
+        <v>12.61</v>
       </c>
       <c r="F33">
-        <f>[1]!'00888.TW-PriceChange'</f>
-        <v>0.16</v>
+        <f>[1]!'00892.TW-PriceChange'</f>
+        <v>0.2</v>
       </c>
       <c r="G33">
-        <f>[1]!'00888.TW-PriceChangeRatio'</f>
-        <v>1.1499999999999999</v>
+        <f>[1]!'00892.TW-PriceChangeRatio'</f>
+        <v>1.61</v>
       </c>
       <c r="H33">
-        <f>[1]!'00888.TW-Volume'</f>
-        <v>63</v>
+        <f>[1]!'00892.TW-Volume'</f>
+        <v>78</v>
       </c>
       <c r="I33">
-        <f>[1]!'00888.TW-BestBidSize'</f>
-        <v>71</v>
+        <f>[1]!'00892.TW-BestBidSize'</f>
+        <v>57</v>
       </c>
       <c r="J33">
-        <f>[1]!'00888.TW-BestAskSize'</f>
-        <v>87</v>
+        <f>[1]!'00892.TW-BestAskSize'</f>
+        <v>129</v>
       </c>
       <c r="K33">
-        <f>[1]!'00888.TW-TotalVolume'</f>
-        <v>5773</v>
+        <f>[1]!'00892.TW-TotalVolume'</f>
+        <v>6114</v>
       </c>
       <c r="L33">
-        <f>[1]!'00888.TW-High'</f>
-        <v>14.09</v>
+        <f>[1]!'00892.TW-High'</f>
+        <v>12.63</v>
       </c>
       <c r="M33">
-        <f>[1]!'00888.TW-Low'</f>
-        <v>13.97</v>
+        <f>[1]!'00892.TW-Low'</f>
+        <v>12.46</v>
       </c>
       <c r="N33">
-        <f>[1]!'00888.TW-Open'</f>
-        <v>13.97</v>
+        <f>[1]!'00892.TW-Open'</f>
+        <v>12.46</v>
       </c>
       <c r="O33" t="str">
-        <f>[1]!'00888.TW-Beta'</f>
+        <f>[1]!'00892.TW-Beta'</f>
         <v>--</v>
       </c>
       <c r="P33" t="str">
-        <f>[1]!'00888.TW-PERatio'</f>
+        <f>[1]!'00892.TW-PERatio'</f>
         <v>--</v>
       </c>
       <c r="Q33" t="str">
-        <f>[1]!'00888.TW-PBRatio'</f>
+        <f>[1]!'00892.TW-PBRatio'</f>
         <v>--</v>
       </c>
       <c r="R33" t="str">
-        <f>[1]!'00888.TW-ROE'</f>
+        <f>[1]!'00892.TW-ROE'</f>
         <v>--</v>
       </c>
       <c r="S33" t="str">
-        <f>[1]!'00888.TW-ReturnOnAssets'</f>
+        <f>[1]!'00892.TW-ReturnOnAssets'</f>
         <v>--</v>
       </c>
       <c r="T33" t="str">
-        <f>[1]!'00888.TW-ProfitMargin'</f>
+        <f>[1]!'00892.TW-ProfitMargin'</f>
         <v>--</v>
       </c>
       <c r="U33" t="str">
-        <f>[1]!'00888.TW-OperatingProfitRatio'</f>
+        <f>[1]!'00892.TW-OperatingProfitRatio'</f>
         <v>--</v>
       </c>
       <c r="V33" t="str">
-        <f>[1]!'00888.TW-NetProfitMargin'</f>
+        <f>[1]!'00892.TW-NetProfitMargin'</f>
         <v>--</v>
       </c>
       <c r="W33" t="str">
-        <f>[1]!'00888.TW-StockNetValue'</f>
+        <f>[1]!'00892.TW-StockNetValue'</f>
         <v>--</v>
       </c>
       <c r="X33" t="str">
-        <f>[1]!'00888.TW-Profit'</f>
+        <f>[1]!'00892.TW-Profit'</f>
         <v>--</v>
       </c>
       <c r="Y33" t="str">
-        <f>[1]!'00888.TW-CurrentRatio'</f>
+        <f>[1]!'00892.TW-CurrentRatio'</f>
         <v>--</v>
       </c>
       <c r="Z33" t="str">
-        <f>[1]!'00888.TW-QuickRatio'</f>
+        <f>[1]!'00892.TW-QuickRatio'</f>
         <v>--</v>
       </c>
       <c r="AA33" t="str">
-        <f>[1]!'00888.TW-LiabilityRatio'</f>
+        <f>[1]!'00892.TW-LiabilityRatio'</f>
         <v>--</v>
       </c>
       <c r="AB33" t="str">
-        <f>[1]!'00888.TW-TimesInterestEarne'</f>
+        <f>[1]!'00892.TW-TimesInterestEarne'</f>
         <v>--</v>
       </c>
       <c r="AC33" t="str">
-        <f>[1]!'00888.TW-ReceivablesTurnoverRatio'</f>
+        <f>[1]!'00892.TW-ReceivablesTurnoverRatio'</f>
         <v>--</v>
       </c>
       <c r="AD33" t="str">
-        <f>[1]!'00888.TW-InventoryTurnoverRatio'</f>
+        <f>[1]!'00892.TW-InventoryTurnoverRatio'</f>
         <v>--</v>
       </c>
       <c r="AE33" t="str">
-        <f>[1]!'00888.TW-CashDividend'</f>
-        <v>0.21</v>
+        <f>[1]!'00892.TW-CashDividend'</f>
+        <v>0.35</v>
       </c>
       <c r="AF33" t="str">
-        <f>[1]!'00888.TW-StockDividend'</f>
+        <f>[1]!'00892.TW-StockDividend'</f>
         <v>--</v>
       </c>
       <c r="AG33">
-        <f>[1]!'00888.TW-CashDividendYieldRate'</f>
-        <v>5.61</v>
+        <f>[1]!'00892.TW-CashDividendYieldRate'</f>
+        <v>4.5199999999999996</v>
       </c>
       <c r="AH33" t="str">
-        <f>[1]!'00888.TW-ChipsField25'</f>
-        <v>2023/04/21</v>
+        <f>[1]!'00892.TW-ChipsField25'</f>
+        <v>2022/11/16</v>
       </c>
       <c r="AI33" t="str">
-        <f>[1]!'00888.TW-ChipsField26'</f>
-        <v>2023/05/22</v>
+        <f>[1]!'00892.TW-ChipsField26'</f>
+        <v>2022/12/19</v>
       </c>
       <c r="AJ33" t="str">
-        <f>[1]!'00888.TW-ChipsField27'</f>
+        <f>[1]!'00892.TW-ChipsField27'</f>
         <v>--</v>
       </c>
       <c r="AK33" t="str">
-        <f>[1]!'00888.TW-Beta'</f>
+        <f>[1]!'00892.TW-Beta'</f>
         <v>--</v>
       </c>
       <c r="AL33" t="str">
-        <f>[1]!'00888.TW-Capital'</f>
+        <f>[1]!'00892.TW-Capital'</f>
         <v>--</v>
       </c>
       <c r="AM33" t="str">
-        <f>[1]!'00888.TW-MarketValue'</f>
+        <f>[1]!'00892.TW-MarketValue'</f>
         <v>--</v>
       </c>
       <c r="AN33">
-        <f>[1]!'00888.TW-ManagementPercent'</f>
-        <v>0.63</v>
+        <f>[1]!'00892.TW-ManagementPercent'</f>
+        <v>0.79</v>
       </c>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
-        <f>[1]!'00892.TW-ID'</f>
-        <v>00892</v>
+        <f>[1]!'00894.TW-ID'</f>
+        <v>00894</v>
       </c>
       <c r="B34" t="str">
-        <f>[1]!'00892.TW-Name'</f>
-        <v>富邦台灣半導體</v>
+        <f>[1]!'00894.TW-Name'</f>
+        <v>中信小資高價30</v>
       </c>
       <c r="C34">
-        <f>[1]!'00892.TW-Bid'</f>
-        <v>12.61</v>
+        <f>[1]!'00894.TW-Bid'</f>
+        <v>14.37</v>
       </c>
       <c r="D34">
-        <f>[1]!'00892.TW-Ask'</f>
-        <v>12.62</v>
+        <f>[1]!'00894.TW-Ask'</f>
+        <v>14.38</v>
       </c>
       <c r="E34">
-        <f>[1]!'00892.TW-Price'</f>
-        <v>12.61</v>
+        <f>[1]!'00894.TW-Price'</f>
+        <v>14.38</v>
       </c>
       <c r="F34">
-        <f>[1]!'00892.TW-PriceChange'</f>
-        <v>0.2</v>
+        <f>[1]!'00894.TW-PriceChange'</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G34">
-        <f>[1]!'00892.TW-PriceChangeRatio'</f>
-        <v>1.61</v>
+        <f>[1]!'00894.TW-PriceChangeRatio'</f>
+        <v>0.98</v>
       </c>
       <c r="H34">
-        <f>[1]!'00892.TW-Volume'</f>
-        <v>78</v>
+        <f>[1]!'00894.TW-Volume'</f>
+        <v>40</v>
       </c>
       <c r="I34">
-        <f>[1]!'00892.TW-BestBidSize'</f>
-        <v>57</v>
+        <f>[1]!'00894.TW-BestBidSize'</f>
+        <v>52</v>
       </c>
       <c r="J34">
-        <f>[1]!'00892.TW-BestAskSize'</f>
-        <v>129</v>
+        <f>[1]!'00894.TW-BestAskSize'</f>
+        <v>31</v>
       </c>
       <c r="K34">
-        <f>[1]!'00892.TW-TotalVolume'</f>
-        <v>6114</v>
+        <f>[1]!'00894.TW-TotalVolume'</f>
+        <v>2075</v>
       </c>
       <c r="L34">
-        <f>[1]!'00892.TW-High'</f>
-        <v>12.63</v>
+        <f>[1]!'00894.TW-High'</f>
+        <v>14.39</v>
       </c>
       <c r="M34">
-        <f>[1]!'00892.TW-Low'</f>
-        <v>12.46</v>
+        <f>[1]!'00894.TW-Low'</f>
+        <v>14.24</v>
       </c>
       <c r="N34">
-        <f>[1]!'00892.TW-Open'</f>
-        <v>12.46</v>
+        <f>[1]!'00894.TW-Open'</f>
+        <v>14.24</v>
       </c>
       <c r="O34" t="str">
-        <f>[1]!'00892.TW-Beta'</f>
+        <f>[1]!'00894.TW-Beta'</f>
         <v>--</v>
       </c>
       <c r="P34" t="str">
-        <f>[1]!'00892.TW-PERatio'</f>
+        <f>[1]!'00894.TW-PERatio'</f>
         <v>--</v>
       </c>
       <c r="Q34" t="str">
-        <f>[1]!'00892.TW-PBRatio'</f>
+        <f>[1]!'00894.TW-PBRatio'</f>
         <v>--</v>
       </c>
       <c r="R34" t="str">
-        <f>[1]!'00892.TW-ROE'</f>
+        <f>[1]!'00894.TW-ROE'</f>
         <v>--</v>
       </c>
       <c r="S34" t="str">
-        <f>[1]!'00892.TW-ReturnOnAssets'</f>
+        <f>[1]!'00894.TW-ReturnOnAssets'</f>
         <v>--</v>
       </c>
       <c r="T34" t="str">
-        <f>[1]!'00892.TW-ProfitMargin'</f>
+        <f>[1]!'00894.TW-ProfitMargin'</f>
         <v>--</v>
       </c>
       <c r="U34" t="str">
-        <f>[1]!'00892.TW-OperatingProfitRatio'</f>
+        <f>[1]!'00894.TW-OperatingProfitRatio'</f>
         <v>--</v>
       </c>
       <c r="V34" t="str">
-        <f>[1]!'00892.TW-NetProfitMargin'</f>
+        <f>[1]!'00894.TW-NetProfitMargin'</f>
         <v>--</v>
       </c>
       <c r="W34" t="str">
-        <f>[1]!'00892.TW-StockNetValue'</f>
+        <f>[1]!'00894.TW-StockNetValue'</f>
         <v>--</v>
       </c>
       <c r="X34" t="str">
-        <f>[1]!'00892.TW-Profit'</f>
+        <f>[1]!'00894.TW-Profit'</f>
         <v>--</v>
       </c>
       <c r="Y34" t="str">
-        <f>[1]!'00892.TW-CurrentRatio'</f>
+        <f>[1]!'00894.TW-CurrentRatio'</f>
         <v>--</v>
       </c>
       <c r="Z34" t="str">
-        <f>[1]!'00892.TW-QuickRatio'</f>
+        <f>[1]!'00894.TW-QuickRatio'</f>
         <v>--</v>
       </c>
       <c r="AA34" t="str">
-        <f>[1]!'00892.TW-LiabilityRatio'</f>
+        <f>[1]!'00894.TW-LiabilityRatio'</f>
         <v>--</v>
       </c>
       <c r="AB34" t="str">
-        <f>[1]!'00892.TW-TimesInterestEarne'</f>
+        <f>[1]!'00894.TW-TimesInterestEarne'</f>
         <v>--</v>
       </c>
       <c r="AC34" t="str">
-        <f>[1]!'00892.TW-ReceivablesTurnoverRatio'</f>
+        <f>[1]!'00894.TW-ReceivablesTurnoverRatio'</f>
         <v>--</v>
       </c>
       <c r="AD34" t="str">
-        <f>[1]!'00892.TW-InventoryTurnoverRatio'</f>
+        <f>[1]!'00894.TW-InventoryTurnoverRatio'</f>
         <v>--</v>
       </c>
       <c r="AE34" t="str">
-        <f>[1]!'00892.TW-CashDividend'</f>
-        <v>0.35</v>
+        <f>[1]!'00894.TW-CashDividend'</f>
+        <v>0.10</v>
       </c>
       <c r="AF34" t="str">
-        <f>[1]!'00892.TW-StockDividend'</f>
+        <f>[1]!'00894.TW-StockDividend'</f>
         <v>--</v>
       </c>
       <c r="AG34">
-        <f>[1]!'00892.TW-CashDividendYieldRate'</f>
-        <v>4.5199999999999996</v>
+        <f>[1]!'00894.TW-CashDividendYieldRate'</f>
+        <v>3.41</v>
       </c>
       <c r="AH34" t="str">
-        <f>[1]!'00892.TW-ChipsField25'</f>
-        <v>2022/11/16</v>
+        <f>[1]!'00894.TW-ChipsField25'</f>
+        <v>2023/05/17</v>
       </c>
       <c r="AI34" t="str">
-        <f>[1]!'00892.TW-ChipsField26'</f>
-        <v>2022/12/19</v>
+        <f>[1]!'00894.TW-ChipsField26'</f>
+        <v>2023/06/12</v>
       </c>
       <c r="AJ34" t="str">
-        <f>[1]!'00892.TW-ChipsField27'</f>
+        <f>[1]!'00894.TW-ChipsField27'</f>
         <v>--</v>
       </c>
       <c r="AK34" t="str">
-        <f>[1]!'00892.TW-Beta'</f>
+        <f>[1]!'00894.TW-Beta'</f>
         <v>--</v>
       </c>
       <c r="AL34" t="str">
-        <f>[1]!'00892.TW-Capital'</f>
+        <f>[1]!'00894.TW-Capital'</f>
         <v>--</v>
       </c>
       <c r="AM34" t="str">
-        <f>[1]!'00892.TW-MarketValue'</f>
+        <f>[1]!'00894.TW-MarketValue'</f>
         <v>--</v>
       </c>
       <c r="AN34">
-        <f>[1]!'00892.TW-ManagementPercent'</f>
-        <v>0.79</v>
+        <f>[1]!'00894.TW-ManagementPercent'</f>
+        <v>0.66</v>
       </c>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
-        <f>[1]!'00894.TW-ID'</f>
-        <v>00894</v>
+        <f>[1]!'00900.TW-ID'</f>
+        <v>00900</v>
       </c>
       <c r="B35" t="str">
-        <f>[1]!'00894.TW-Name'</f>
-        <v>中信小資高價30</v>
+        <f>[1]!'00900.TW-Name'</f>
+        <v>富邦特選高股息30</v>
       </c>
       <c r="C35">
-        <f>[1]!'00894.TW-Bid'</f>
-        <v>14.37</v>
+        <f>[1]!'00900.TW-Bid'</f>
+        <v>12.07</v>
       </c>
       <c r="D35">
-        <f>[1]!'00894.TW-Ask'</f>
-        <v>14.38</v>
+        <f>[1]!'00900.TW-Ask'</f>
+        <v>12.08</v>
       </c>
       <c r="E35">
-        <f>[1]!'00894.TW-Price'</f>
-        <v>14.38</v>
+        <f>[1]!'00900.TW-Price'</f>
+        <v>12.07</v>
       </c>
       <c r="F35">
-        <f>[1]!'00894.TW-PriceChange'</f>
-        <v>0.14000000000000001</v>
+        <f>[1]!'00900.TW-PriceChange'</f>
+        <v>0.05</v>
       </c>
       <c r="G35">
-        <f>[1]!'00894.TW-PriceChangeRatio'</f>
-        <v>0.98</v>
+        <f>[1]!'00900.TW-PriceChangeRatio'</f>
+        <v>0.42</v>
       </c>
       <c r="H35">
-        <f>[1]!'00894.TW-Volume'</f>
-        <v>40</v>
+        <f>[1]!'00900.TW-Volume'</f>
+        <v>213</v>
       </c>
       <c r="I35">
-        <f>[1]!'00894.TW-BestBidSize'</f>
-        <v>52</v>
+        <f>[1]!'00900.TW-BestBidSize'</f>
+        <v>445</v>
       </c>
       <c r="J35">
-        <f>[1]!'00894.TW-BestAskSize'</f>
-        <v>31</v>
+        <f>[1]!'00900.TW-BestAskSize'</f>
+        <v>609</v>
       </c>
       <c r="K35">
-        <f>[1]!'00894.TW-TotalVolume'</f>
-        <v>2075</v>
+        <f>[1]!'00900.TW-TotalVolume'</f>
+        <v>10532</v>
       </c>
       <c r="L35">
-        <f>[1]!'00894.TW-High'</f>
-        <v>14.39</v>
+        <f>[1]!'00900.TW-High'</f>
+        <v>12.1</v>
       </c>
       <c r="M35">
-        <f>[1]!'00894.TW-Low'</f>
-        <v>14.24</v>
+        <f>[1]!'00900.TW-Low'</f>
+        <v>12.04</v>
       </c>
       <c r="N35">
-        <f>[1]!'00894.TW-Open'</f>
-        <v>14.24</v>
+        <f>[1]!'00900.TW-Open'</f>
+        <v>12.04</v>
       </c>
       <c r="O35" t="str">
-        <f>[1]!'00894.TW-Beta'</f>
+        <f>[1]!'00900.TW-Beta'</f>
         <v>--</v>
       </c>
       <c r="P35" t="str">
-        <f>[1]!'00894.TW-PERatio'</f>
+        <f>[1]!'00900.TW-PERatio'</f>
         <v>--</v>
       </c>
       <c r="Q35" t="str">
-        <f>[1]!'00894.TW-PBRatio'</f>
+        <f>[1]!'00900.TW-PBRatio'</f>
         <v>--</v>
       </c>
       <c r="R35" t="str">
-        <f>[1]!'00894.TW-ROE'</f>
+        <f>[1]!'00900.TW-ROE'</f>
         <v>--</v>
       </c>
       <c r="S35" t="str">
-        <f>[1]!'00894.TW-ReturnOnAssets'</f>
+        <f>[1]!'00900.TW-ReturnOnAssets'</f>
         <v>--</v>
       </c>
       <c r="T35" t="str">
-        <f>[1]!'00894.TW-ProfitMargin'</f>
+        <f>[1]!'00900.TW-ProfitMargin'</f>
         <v>--</v>
       </c>
       <c r="U35" t="str">
-        <f>[1]!'00894.TW-OperatingProfitRatio'</f>
+        <f>[1]!'00900.TW-OperatingProfitRatio'</f>
         <v>--</v>
       </c>
       <c r="V35" t="str">
-        <f>[1]!'00894.TW-NetProfitMargin'</f>
+        <f>[1]!'00900.TW-NetProfitMargin'</f>
         <v>--</v>
       </c>
       <c r="W35" t="str">
-        <f>[1]!'00894.TW-StockNetValue'</f>
+        <f>[1]!'00900.TW-StockNetValue'</f>
         <v>--</v>
       </c>
       <c r="X35" t="str">
-        <f>[1]!'00894.TW-Profit'</f>
+        <f>[1]!'00900.TW-Profit'</f>
         <v>--</v>
       </c>
       <c r="Y35" t="str">
-        <f>[1]!'00894.TW-CurrentRatio'</f>
+        <f>[1]!'00900.TW-CurrentRatio'</f>
         <v>--</v>
       </c>
       <c r="Z35" t="str">
-        <f>[1]!'00894.TW-QuickRatio'</f>
+        <f>[1]!'00900.TW-QuickRatio'</f>
         <v>--</v>
       </c>
       <c r="AA35" t="str">
-        <f>[1]!'00894.TW-LiabilityRatio'</f>
+        <f>[1]!'00900.TW-LiabilityRatio'</f>
         <v>--</v>
       </c>
       <c r="AB35" t="str">
-        <f>[1]!'00894.TW-TimesInterestEarne'</f>
+        <f>[1]!'00900.TW-TimesInterestEarne'</f>
         <v>--</v>
       </c>
       <c r="AC35" t="str">
-        <f>[1]!'00894.TW-ReceivablesTurnoverRatio'</f>
+        <f>[1]!'00900.TW-ReceivablesTurnoverRatio'</f>
         <v>--</v>
       </c>
       <c r="AD35" t="str">
-        <f>[1]!'00894.TW-InventoryTurnoverRatio'</f>
+        <f>[1]!'00900.TW-InventoryTurnoverRatio'</f>
         <v>--</v>
       </c>
       <c r="AE35" t="str">
-        <f>[1]!'00894.TW-CashDividend'</f>
-        <v>0.10</v>
+        <f>[1]!'00900.TW-CashDividend'</f>
+        <v>0.02</v>
       </c>
       <c r="AF35" t="str">
-        <f>[1]!'00894.TW-StockDividend'</f>
+        <f>[1]!'00900.TW-StockDividend'</f>
         <v>--</v>
       </c>
       <c r="AG35">
-        <f>[1]!'00894.TW-CashDividendYieldRate'</f>
-        <v>3.41</v>
+        <f>[1]!'00900.TW-CashDividendYieldRate'</f>
+        <v>12.34</v>
       </c>
       <c r="AH35" t="str">
-        <f>[1]!'00894.TW-ChipsField25'</f>
+        <f>[1]!'00900.TW-ChipsField25'</f>
         <v>2023/05/17</v>
       </c>
       <c r="AI35" t="str">
-        <f>[1]!'00894.TW-ChipsField26'</f>
+        <f>[1]!'00900.TW-ChipsField26'</f>
         <v>2023/06/12</v>
       </c>
       <c r="AJ35" t="str">
-        <f>[1]!'00894.TW-ChipsField27'</f>
+        <f>[1]!'00900.TW-ChipsField27'</f>
         <v>--</v>
       </c>
       <c r="AK35" t="str">
-        <f>[1]!'00894.TW-Beta'</f>
+        <f>[1]!'00900.TW-Beta'</f>
         <v>--</v>
       </c>
       <c r="AL35" t="str">
-        <f>[1]!'00894.TW-Capital'</f>
+        <f>[1]!'00900.TW-Capital'</f>
         <v>--</v>
       </c>
       <c r="AM35" t="str">
-        <f>[1]!'00894.TW-MarketValue'</f>
+        <f>[1]!'00900.TW-MarketValue'</f>
         <v>--</v>
       </c>
       <c r="AN35">
-        <f>[1]!'00894.TW-ManagementPercent'</f>
-        <v>0.66</v>
+        <f>[1]!'00900.TW-ManagementPercent'</f>
+        <v>1.37</v>
       </c>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
-        <f>[1]!'00900.TW-ID'</f>
-        <v>00900</v>
+        <f>[1]!'00907.TW-ID'</f>
+        <v>00907</v>
       </c>
       <c r="B36" t="str">
-        <f>[1]!'00900.TW-Name'</f>
-        <v>富邦特選高股息30</v>
+        <f>[1]!'00907.TW-Name'</f>
+        <v>永豐優息存股</v>
       </c>
       <c r="C36">
-        <f>[1]!'00900.TW-Bid'</f>
-        <v>12.07</v>
+        <f>[1]!'00907.TW-Bid'</f>
+        <v>15.03</v>
       </c>
       <c r="D36">
-        <f>[1]!'00900.TW-Ask'</f>
-        <v>12.08</v>
+        <f>[1]!'00907.TW-Ask'</f>
+        <v>15.04</v>
       </c>
       <c r="E36">
-        <f>[1]!'00900.TW-Price'</f>
-        <v>12.07</v>
+        <f>[1]!'00907.TW-Price'</f>
+        <v>15.03</v>
       </c>
       <c r="F36">
-        <f>[1]!'00900.TW-PriceChange'</f>
-        <v>0.05</v>
+        <f>[1]!'00907.TW-PriceChange'</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G36">
-        <f>[1]!'00900.TW-PriceChangeRatio'</f>
-        <v>0.42</v>
+        <f>[1]!'00907.TW-PriceChangeRatio'</f>
+        <v>0.47</v>
       </c>
       <c r="H36">
-        <f>[1]!'00900.TW-Volume'</f>
-        <v>213</v>
+        <f>[1]!'00907.TW-Volume'</f>
+        <v>44</v>
       </c>
       <c r="I36">
-        <f>[1]!'00900.TW-BestBidSize'</f>
-        <v>445</v>
+        <f>[1]!'00907.TW-BestBidSize'</f>
+        <v>14</v>
       </c>
       <c r="J36">
-        <f>[1]!'00900.TW-BestAskSize'</f>
-        <v>609</v>
+        <f>[1]!'00907.TW-BestAskSize'</f>
+        <v>70</v>
       </c>
       <c r="K36">
-        <f>[1]!'00900.TW-TotalVolume'</f>
-        <v>10532</v>
+        <f>[1]!'00907.TW-TotalVolume'</f>
+        <v>2917</v>
       </c>
       <c r="L36">
-        <f>[1]!'00900.TW-High'</f>
-        <v>12.1</v>
+        <f>[1]!'00907.TW-High'</f>
+        <v>15.03</v>
       </c>
       <c r="M36">
-        <f>[1]!'00900.TW-Low'</f>
-        <v>12.04</v>
+        <f>[1]!'00907.TW-Low'</f>
+        <v>14.93</v>
       </c>
       <c r="N36">
-        <f>[1]!'00900.TW-Open'</f>
-        <v>12.04</v>
+        <f>[1]!'00907.TW-Open'</f>
+        <v>14.93</v>
       </c>
       <c r="O36" t="str">
-        <f>[1]!'00900.TW-Beta'</f>
+        <f>[1]!'00907.TW-Beta'</f>
         <v>--</v>
       </c>
       <c r="P36" t="str">
-        <f>[1]!'00900.TW-PERatio'</f>
+        <f>[1]!'00907.TW-PERatio'</f>
         <v>--</v>
       </c>
       <c r="Q36" t="str">
-        <f>[1]!'00900.TW-PBRatio'</f>
+        <f>[1]!'00907.TW-PBRatio'</f>
         <v>--</v>
       </c>
       <c r="R36" t="str">
-        <f>[1]!'00900.TW-ROE'</f>
+        <f>[1]!'00907.TW-ROE'</f>
         <v>--</v>
       </c>
       <c r="S36" t="str">
-        <f>[1]!'00900.TW-ReturnOnAssets'</f>
+        <f>[1]!'00907.TW-ReturnOnAssets'</f>
         <v>--</v>
       </c>
       <c r="T36" t="str">
-        <f>[1]!'00900.TW-ProfitMargin'</f>
+        <f>[1]!'00907.TW-ProfitMargin'</f>
         <v>--</v>
       </c>
       <c r="U36" t="str">
-        <f>[1]!'00900.TW-OperatingProfitRatio'</f>
+        <f>[1]!'00907.TW-OperatingProfitRatio'</f>
         <v>--</v>
       </c>
       <c r="V36" t="str">
-        <f>[1]!'00900.TW-NetProfitMargin'</f>
+        <f>[1]!'00907.TW-NetProfitMargin'</f>
         <v>--</v>
       </c>
       <c r="W36" t="str">
-        <f>[1]!'00900.TW-StockNetValue'</f>
+        <f>[1]!'00907.TW-StockNetValue'</f>
         <v>--</v>
       </c>
       <c r="X36" t="str">
-        <f>[1]!'00900.TW-Profit'</f>
+        <f>[1]!'00907.TW-Profit'</f>
         <v>--</v>
       </c>
       <c r="Y36" t="str">
-        <f>[1]!'00900.TW-CurrentRatio'</f>
+        <f>[1]!'00907.TW-CurrentRatio'</f>
         <v>--</v>
       </c>
       <c r="Z36" t="str">
-        <f>[1]!'00900.TW-QuickRatio'</f>
+        <f>[1]!'00907.TW-QuickRatio'</f>
         <v>--</v>
       </c>
       <c r="AA36" t="str">
-        <f>[1]!'00900.TW-LiabilityRatio'</f>
+        <f>[1]!'00907.TW-LiabilityRatio'</f>
         <v>--</v>
       </c>
       <c r="AB36" t="str">
-        <f>[1]!'00900.TW-TimesInterestEarne'</f>
+        <f>[1]!'00907.TW-TimesInterestEarne'</f>
         <v>--</v>
       </c>
       <c r="AC36" t="str">
-        <f>[1]!'00900.TW-ReceivablesTurnoverRatio'</f>
+        <f>[1]!'00907.TW-ReceivablesTurnoverRatio'</f>
         <v>--</v>
       </c>
       <c r="AD36" t="str">
-        <f>[1]!'00900.TW-InventoryTurnoverRatio'</f>
+        <f>[1]!'00907.TW-InventoryTurnoverRatio'</f>
         <v>--</v>
       </c>
       <c r="AE36" t="str">
-        <f>[1]!'00900.TW-CashDividend'</f>
-        <v>0.02</v>
+        <f>[1]!'00907.TW-CashDividend'</f>
+        <v>0.07</v>
       </c>
       <c r="AF36" t="str">
-        <f>[1]!'00900.TW-StockDividend'</f>
+        <f>[1]!'00907.TW-StockDividend'</f>
         <v>--</v>
       </c>
       <c r="AG36">
-        <f>[1]!'00900.TW-CashDividendYieldRate'</f>
-        <v>12.34</v>
+        <f>[1]!'00907.TW-CashDividendYieldRate'</f>
+        <v>4.26</v>
       </c>
       <c r="AH36" t="str">
-        <f>[1]!'00900.TW-ChipsField25'</f>
-        <v>2023/05/17</v>
+        <f>[1]!'00907.TW-ChipsField25'</f>
+        <v>2023/06/16</v>
       </c>
       <c r="AI36" t="str">
-        <f>[1]!'00900.TW-ChipsField26'</f>
-        <v>2023/06/12</v>
+        <f>[1]!'00907.TW-ChipsField26'</f>
+        <v>2023/07/14</v>
       </c>
       <c r="AJ36" t="str">
-        <f>[1]!'00900.TW-ChipsField27'</f>
+        <f>[1]!'00907.TW-ChipsField27'</f>
         <v>--</v>
       </c>
       <c r="AK36" t="str">
-        <f>[1]!'00900.TW-Beta'</f>
+        <f>[1]!'00907.TW-Beta'</f>
         <v>--</v>
       </c>
       <c r="AL36" t="str">
-        <f>[1]!'00900.TW-Capital'</f>
+        <f>[1]!'00907.TW-Capital'</f>
         <v>--</v>
       </c>
       <c r="AM36" t="str">
-        <f>[1]!'00900.TW-MarketValue'</f>
-        <v>--</v>
-      </c>
-      <c r="AN36">
-        <f>[1]!'00900.TW-ManagementPercent'</f>
-        <v>1.37</v>
+        <f>[1]!'00907.TW-MarketValue'</f>
+        <v>--</v>
+      </c>
+      <c r="AN36" t="str">
+        <f>[1]!'00907.TW-ManagementPercent'</f>
+        <v>--</v>
       </c>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
-        <f>[1]!'00907.TW-ID'</f>
-        <v>00907</v>
-      </c>
-      <c r="B37" t="str">
-        <f>[1]!'00907.TW-Name'</f>
-        <v>永豐優息存股</v>
-      </c>
-      <c r="C37">
-        <f>[1]!'00907.TW-Bid'</f>
-        <v>15.03</v>
-      </c>
-      <c r="D37">
-        <f>[1]!'00907.TW-Ask'</f>
-        <v>15.04</v>
-      </c>
-      <c r="E37">
-        <f>[1]!'00907.TW-Price'</f>
-        <v>15.03</v>
-      </c>
-      <c r="F37">
-        <f>[1]!'00907.TW-PriceChange'</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G37">
-        <f>[1]!'00907.TW-PriceChangeRatio'</f>
-        <v>0.47</v>
-      </c>
-      <c r="H37">
-        <f>[1]!'00907.TW-Volume'</f>
-        <v>44</v>
-      </c>
-      <c r="I37">
-        <f>[1]!'00907.TW-BestBidSize'</f>
-        <v>14</v>
-      </c>
-      <c r="J37">
-        <f>[1]!'00907.TW-BestAskSize'</f>
-        <v>70</v>
-      </c>
-      <c r="K37">
-        <f>[1]!'00907.TW-TotalVolume'</f>
-        <v>2917</v>
-      </c>
-      <c r="L37">
-        <f>[1]!'00907.TW-High'</f>
-        <v>15.03</v>
-      </c>
-      <c r="M37">
-        <f>[1]!'00907.TW-Low'</f>
-        <v>14.93</v>
-      </c>
-      <c r="N37">
-        <f>[1]!'00907.TW-Open'</f>
-        <v>14.93</v>
-      </c>
-      <c r="O37" t="str">
-        <f>[1]!'00907.TW-Beta'</f>
-        <v>--</v>
-      </c>
-      <c r="P37" t="str">
-        <f>[1]!'00907.TW-PERatio'</f>
-        <v>--</v>
-      </c>
-      <c r="Q37" t="str">
-        <f>[1]!'00907.TW-PBRatio'</f>
-        <v>--</v>
-      </c>
-      <c r="R37" t="str">
-        <f>[1]!'00907.TW-ROE'</f>
-        <v>--</v>
-      </c>
-      <c r="S37" t="str">
-        <f>[1]!'00907.TW-ReturnOnAssets'</f>
-        <v>--</v>
-      </c>
-      <c r="T37" t="str">
-        <f>[1]!'00907.TW-ProfitMargin'</f>
-        <v>--</v>
-      </c>
-      <c r="U37" t="str">
-        <f>[1]!'00907.TW-OperatingProfitRatio'</f>
-        <v>--</v>
-      </c>
-      <c r="V37" t="str">
-        <f>[1]!'00907.TW-NetProfitMargin'</f>
-        <v>--</v>
-      </c>
-      <c r="W37" t="str">
-        <f>[1]!'00907.TW-StockNetValue'</f>
-        <v>--</v>
-      </c>
-      <c r="X37" t="str">
-        <f>[1]!'00907.TW-Profit'</f>
-        <v>--</v>
-      </c>
-      <c r="Y37" t="str">
-        <f>[1]!'00907.TW-CurrentRatio'</f>
-        <v>--</v>
-      </c>
-      <c r="Z37" t="str">
-        <f>[1]!'00907.TW-QuickRatio'</f>
-        <v>--</v>
-      </c>
-      <c r="AA37" t="str">
-        <f>[1]!'00907.TW-LiabilityRatio'</f>
-        <v>--</v>
-      </c>
-      <c r="AB37" t="str">
-        <f>[1]!'00907.TW-TimesInterestEarne'</f>
-        <v>--</v>
-      </c>
-      <c r="AC37" t="str">
-        <f>[1]!'00907.TW-ReceivablesTurnoverRatio'</f>
-        <v>--</v>
-      </c>
-      <c r="AD37" t="str">
-        <f>[1]!'00907.TW-InventoryTurnoverRatio'</f>
-        <v>--</v>
-      </c>
-      <c r="AE37" t="str">
-        <f>[1]!'00907.TW-CashDividend'</f>
-        <v>0.07</v>
-      </c>
-      <c r="AF37" t="str">
-        <f>[1]!'00907.TW-StockDividend'</f>
-        <v>--</v>
-      </c>
-      <c r="AG37">
-        <f>[1]!'00907.TW-CashDividendYieldRate'</f>
-        <v>4.26</v>
-      </c>
-      <c r="AH37" t="str">
-        <f>[1]!'00907.TW-ChipsField25'</f>
-        <v>2023/06/16</v>
-      </c>
-      <c r="AI37" t="str">
-        <f>[1]!'00907.TW-ChipsField26'</f>
-        <v>2023/07/14</v>
-      </c>
-      <c r="AJ37" t="str">
-        <f>[1]!'00907.TW-ChipsField27'</f>
-        <v>--</v>
-      </c>
-      <c r="AK37" t="str">
-        <f>[1]!'00907.TW-Beta'</f>
-        <v>--</v>
-      </c>
-      <c r="AL37" t="str">
-        <f>[1]!'00907.TW-Capital'</f>
-        <v>--</v>
-      </c>
-      <c r="AM37" t="str">
-        <f>[1]!'00907.TW-MarketValue'</f>
-        <v>--</v>
-      </c>
-      <c r="AN37" t="str">
-        <f>[1]!'00907.TW-ManagementPercent'</f>
-        <v>--</v>
-      </c>
-    </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A38" t="str">
         <f>[1]!'00771.TW-ID'</f>
         <v>00771</v>
       </c>
-      <c r="B38" t="str">
+      <c r="B37" t="str">
         <f>[1]!'00771.TW-Name'</f>
         <v>元大US高息特別股</v>
       </c>
-      <c r="C38">
+      <c r="C37">
         <f>[1]!'00771.TW-Bid'</f>
         <v>15.92</v>
       </c>
-      <c r="D38">
+      <c r="D37">
         <f>[1]!'00771.TW-Ask'</f>
         <v>15.95</v>
       </c>
-      <c r="E38">
+      <c r="E37">
         <f>[1]!'00771.TW-Price'</f>
         <v>15.93</v>
       </c>
-      <c r="F38">
+      <c r="F37">
         <f>[1]!'00771.TW-PriceChange'</f>
         <v>0.01</v>
       </c>
-      <c r="G38">
+      <c r="G37">
         <f>[1]!'00771.TW-PriceChangeRatio'</f>
         <v>0.06</v>
       </c>
-      <c r="H38">
+      <c r="H37">
         <f>[1]!'00771.TW-Volume'</f>
         <v>2</v>
       </c>
-      <c r="I38">
+      <c r="I37">
         <f>[1]!'00771.TW-BestBidSize'</f>
         <v>5</v>
       </c>
-      <c r="J38">
+      <c r="J37">
         <f>[1]!'00771.TW-BestAskSize'</f>
         <v>2</v>
       </c>
-      <c r="K38">
+      <c r="K37">
         <f>[1]!'00771.TW-TotalVolume'</f>
         <v>23</v>
       </c>
-      <c r="L38">
+      <c r="L37">
         <f>[1]!'00771.TW-High'</f>
         <v>15.95</v>
       </c>
-      <c r="M38">
+      <c r="M37">
         <f>[1]!'00771.TW-Low'</f>
         <v>15.92</v>
       </c>
-      <c r="N38">
+      <c r="N37">
         <f>[1]!'00771.TW-Open'</f>
         <v>15.92</v>
       </c>
-      <c r="O38" t="str">
+      <c r="O37" t="str">
         <f>[1]!'00771.TW-Beta'</f>
         <v>--</v>
       </c>
-      <c r="P38" t="str">
+      <c r="P37" t="str">
         <f>[1]!'00771.TW-PERatio'</f>
         <v>--</v>
       </c>
-      <c r="Q38" t="str">
+      <c r="Q37" t="str">
         <f>[1]!'00771.TW-PBRatio'</f>
         <v>--</v>
       </c>
-      <c r="R38" t="str">
+      <c r="R37" t="str">
         <f>[1]!'00771.TW-ROE'</f>
         <v>--</v>
       </c>
-      <c r="S38" t="str">
+      <c r="S37" t="str">
         <f>[1]!'00771.TW-ReturnOnAssets'</f>
         <v>--</v>
       </c>
-      <c r="T38" t="str">
+      <c r="T37" t="str">
         <f>[1]!'00771.TW-ProfitMargin'</f>
         <v>--</v>
       </c>
-      <c r="U38" t="str">
+      <c r="U37" t="str">
         <f>[1]!'00771.TW-OperatingProfitRatio'</f>
         <v>--</v>
       </c>
-      <c r="V38" t="str">
+      <c r="V37" t="str">
         <f>[1]!'00771.TW-NetProfitMargin'</f>
         <v>--</v>
       </c>
-      <c r="W38" t="str">
+      <c r="W37" t="str">
         <f>[1]!'00771.TW-StockNetValue'</f>
         <v>--</v>
       </c>
-      <c r="X38" t="str">
+      <c r="X37" t="str">
         <f>[1]!'00771.TW-Profit'</f>
         <v>--</v>
       </c>
-      <c r="Y38" t="str">
+      <c r="Y37" t="str">
         <f>[1]!'00771.TW-CurrentRatio'</f>
         <v>--</v>
       </c>
-      <c r="Z38" t="str">
+      <c r="Z37" t="str">
         <f>[1]!'00771.TW-QuickRatio'</f>
         <v>--</v>
       </c>
-      <c r="AA38" t="str">
+      <c r="AA37" t="str">
         <f>[1]!'00771.TW-LiabilityRatio'</f>
         <v>--</v>
       </c>
-      <c r="AB38" t="str">
+      <c r="AB37" t="str">
         <f>[1]!'00771.TW-TimesInterestEarne'</f>
         <v>--</v>
       </c>
-      <c r="AC38" t="str">
+      <c r="AC37" t="str">
         <f>[1]!'00771.TW-ReceivablesTurnoverRatio'</f>
         <v>--</v>
       </c>
-      <c r="AD38" t="str">
+      <c r="AD37" t="str">
         <f>[1]!'00771.TW-InventoryTurnoverRatio'</f>
         <v>--</v>
       </c>
-      <c r="AE38" t="str">
+      <c r="AE37" t="str">
         <f>[1]!'00771.TW-CashDividend'</f>
         <v>0.18</v>
       </c>
-      <c r="AF38" t="str">
+      <c r="AF37" t="str">
         <f>[1]!'00771.TW-StockDividend'</f>
         <v>--</v>
       </c>
-      <c r="AG38">
+      <c r="AG37">
         <f>[1]!'00771.TW-CashDividendYieldRate'</f>
         <v>4.46</v>
       </c>
-      <c r="AH38" t="str">
+      <c r="AH37" t="str">
         <f>[1]!'00771.TW-ChipsField25'</f>
         <v>2023/05/17</v>
       </c>
-      <c r="AI38" t="str">
+      <c r="AI37" t="str">
         <f>[1]!'00771.TW-ChipsField26'</f>
         <v>2023/06/15</v>
       </c>
-      <c r="AJ38" t="str">
+      <c r="AJ37" t="str">
         <f>[1]!'00771.TW-ChipsField27'</f>
         <v>--</v>
       </c>
-      <c r="AK38" t="str">
+      <c r="AK37" t="str">
         <f>[1]!'00771.TW-Beta'</f>
         <v>--</v>
       </c>
-      <c r="AL38" t="str">
+      <c r="AL37" t="str">
         <f>[1]!'00771.TW-Capital'</f>
         <v>--</v>
       </c>
-      <c r="AM38" t="str">
+      <c r="AM37" t="str">
         <f>[1]!'00771.TW-MarketValue'</f>
         <v>--</v>
       </c>
-      <c r="AN38">
+      <c r="AN37">
         <f>[1]!'00771.TW-ManagementPercent'</f>
         <v>0.9</v>
       </c>

--- a/88.xlsx
+++ b/88.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\py\twstock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2588BA3F-544D-4467-B95A-C75CDC8EE08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7426850-7551-45CF-AB58-947CE0B99FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{47DDDF54-944A-4756-B61E-BB185F92436C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>代碼</t>
   </si>
@@ -215,12 +215,6 @@
     <t>006208</t>
   </si>
   <si>
-    <t>00637L</t>
-  </si>
-  <si>
-    <t>00646</t>
-  </si>
-  <si>
     <t>00679B</t>
   </si>
   <si>
@@ -233,9 +227,6 @@
     <t>00701</t>
   </si>
   <si>
-    <t>00708L</t>
-  </si>
-  <si>
     <t>00712</t>
   </si>
   <si>
@@ -251,18 +242,9 @@
     <t>00731</t>
   </si>
   <si>
-    <t>00733</t>
-  </si>
-  <si>
     <t>00751B</t>
   </si>
   <si>
-    <t>00752</t>
-  </si>
-  <si>
-    <t>00757</t>
-  </si>
-  <si>
     <t>00770</t>
   </si>
   <si>
@@ -284,12 +266,6 @@
     <t>00881</t>
   </si>
   <si>
-    <t>00882</t>
-  </si>
-  <si>
-    <t>00885</t>
-  </si>
-  <si>
     <t>00888</t>
   </si>
   <si>
@@ -299,9 +275,6 @@
     <t>00894</t>
   </si>
   <si>
-    <t>00900</t>
-  </si>
-  <si>
     <t>00907</t>
   </si>
   <si>
@@ -309,7 +282,6 @@
   </si>
   <si>
     <t>1232</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -413,7 +385,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -431,6 +403,21 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -749,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9760E4-6252-4CFB-95E8-1808FF752DF3}">
   <dimension ref="A1:AL64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -894,7 +881,7 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="P2"/>
       <c r="Q2"/>
@@ -2027,7 +2014,7 @@
       <c r="AK43"/>
     </row>
     <row r="44" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="10" t="s">
         <v>79</v>
       </c>
       <c r="P44"/>
@@ -2054,9 +2041,7 @@
       <c r="AK44"/>
     </row>
     <row r="45" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B45" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="B45" s="6"/>
       <c r="P45"/>
       <c r="Q45"/>
       <c r="R45"/>
@@ -2081,9 +2066,7 @@
       <c r="AK45"/>
     </row>
     <row r="46" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B46" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="B46" s="6"/>
       <c r="P46"/>
       <c r="Q46"/>
       <c r="R46"/>
@@ -2108,9 +2091,7 @@
       <c r="AK46"/>
     </row>
     <row r="47" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B47" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="B47" s="6"/>
       <c r="P47"/>
       <c r="Q47"/>
       <c r="R47"/>
@@ -2135,9 +2116,7 @@
       <c r="AK47"/>
     </row>
     <row r="48" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B48" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="B48" s="6"/>
       <c r="P48"/>
       <c r="Q48"/>
       <c r="R48"/>
@@ -2162,9 +2141,7 @@
       <c r="AK48"/>
     </row>
     <row r="49" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B49" s="4" t="s">
-        <v>84</v>
-      </c>
+      <c r="B49" s="7"/>
       <c r="P49"/>
       <c r="Q49"/>
       <c r="R49"/>
@@ -2189,9 +2166,7 @@
       <c r="AK49"/>
     </row>
     <row r="50" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B50" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="B50" s="6"/>
       <c r="P50"/>
       <c r="Q50"/>
       <c r="R50"/>
@@ -2216,9 +2191,7 @@
       <c r="AK50"/>
     </row>
     <row r="51" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B51" s="4" t="s">
-        <v>86</v>
-      </c>
+      <c r="B51" s="7"/>
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51"/>
@@ -2243,9 +2216,7 @@
       <c r="AK51"/>
     </row>
     <row r="52" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B52" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="B52" s="7"/>
       <c r="P52"/>
       <c r="Q52"/>
       <c r="R52"/>
@@ -2270,9 +2241,7 @@
       <c r="AK52"/>
     </row>
     <row r="53" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B53" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="B53" s="8"/>
       <c r="P53"/>
       <c r="Q53"/>
       <c r="R53"/>
@@ -2297,6 +2266,7 @@
       <c r="AK53"/>
     </row>
     <row r="54" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B54" s="9"/>
       <c r="P54"/>
       <c r="Q54"/>
       <c r="R54"/>
@@ -2321,6 +2291,7 @@
       <c r="AK54"/>
     </row>
     <row r="55" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B55" s="9"/>
       <c r="P55"/>
       <c r="Q55"/>
       <c r="R55"/>
@@ -2564,8 +2535,5 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="B4" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>